--- a/app/src/main/assets/招聘求职信息-招聘网站-人才网-拉勾招聘.xlsx
+++ b/app/src/main/assets/招聘求职信息-招聘网站-人才网-拉勾招聘.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -430,152 +430,152 @@
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" t="str">
-        <v>android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B3" t="str">
-        <v>7k-12k</v>
+        <v>6k-8k</v>
       </c>
       <c r="C3" t="str">
-        <v>优量科技</v>
+        <v>天派信息技术</v>
       </c>
       <c r="D3" t="str">
-        <v>淮河路</v>
+        <v>高新区</v>
       </c>
       <c r="E3" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-12k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">6k-8k
+                        经验3-5年 / 不限</v>
       </c>
       <c r="F3" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-12k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">6k-8k
+                        经验3-5年 / 不限</v>
       </c>
       <c r="G3" t="str">
-        <v>软件开发 / 未融资 / 少于15人</v>
+        <v>通讯电子,软件开发 / 未融资 / 15-50人</v>
       </c>
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4" t="str">
+        <v>Android开发工程师</v>
+      </c>
+      <c r="B4" t="str">
+        <v>10k-15k</v>
+      </c>
+      <c r="C4" t="str">
+        <v>小熊博望</v>
+      </c>
+      <c r="D4" t="str">
+        <v>金水区</v>
+      </c>
+      <c r="E4" t="str" xml:space="preserve">
+        <v xml:space="preserve">10k-15k
+                        经验1-3年 / 本科</v>
+      </c>
+      <c r="F4" t="str" xml:space="preserve">
+        <v xml:space="preserve">10k-15k
+                        经验1-3年 / 本科</v>
+      </c>
+      <c r="G4" t="str">
+        <v>IT技术服务｜咨询,工具类产品 / 不需要融资 / 150-500人</v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
+      <c r="A5" t="str">
+        <v>安卓android开发工程师</v>
+      </c>
+      <c r="B5" t="str">
+        <v>8k-12k</v>
+      </c>
+      <c r="C5" t="str">
+        <v>匠库信息</v>
+      </c>
+      <c r="D5" t="str">
+        <v>二七区</v>
+      </c>
+      <c r="E5" t="str" xml:space="preserve">
+        <v xml:space="preserve">8k-12k
+                        经验3-5年 / 不限</v>
+      </c>
+      <c r="F5" t="str" xml:space="preserve">
+        <v xml:space="preserve">8k-12k
+                        经验3-5年 / 不限</v>
+      </c>
+      <c r="G5" t="str">
+        <v>软件服务｜咨询,IT技术服务｜咨询 / 不需要融资 / 15-50人</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
+      <c r="A6" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B6" t="str">
+        <v>7k-12k</v>
+      </c>
+      <c r="C6" t="str">
+        <v>优量科技</v>
+      </c>
+      <c r="D6" t="str">
+        <v>淮河路</v>
+      </c>
+      <c r="E6" t="str" xml:space="preserve">
+        <v xml:space="preserve">7k-12k
+                        经验1-3年 / 本科</v>
+      </c>
+      <c r="F6" t="str" xml:space="preserve">
+        <v xml:space="preserve">7k-12k
+                        经验1-3年 / 本科</v>
+      </c>
+      <c r="G6" t="str">
+        <v>软件开发 / 未融资 / 少于15人</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
+      <c r="A7" t="str">
         <v>Android(安卓)软件开发工程师</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B7" t="str">
         <v>6k-8k</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C7" t="str">
         <v>华军融创</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D7" t="str">
         <v>中原区</v>
       </c>
-      <c r="E4" t="str" xml:space="preserve">
+      <c r="E7" t="str" xml:space="preserve">
         <v xml:space="preserve">6k-8k
                         经验不限 / 本科</v>
       </c>
-      <c r="F4" t="str" xml:space="preserve">
+      <c r="F7" t="str" xml:space="preserve">
         <v xml:space="preserve">6k-8k
                         经验不限 / 本科</v>
       </c>
-      <c r="G4" t="str">
+      <c r="G7" t="str">
         <v>软件服务｜咨询,IT技术服务｜咨询 / 未融资 / 15-50人</v>
       </c>
     </row>
-    <row r="5" xml:space="preserve">
-      <c r="A5" t="str">
-        <v>Android实习工程师</v>
-      </c>
-      <c r="B5" t="str">
-        <v>4k-6k</v>
-      </c>
-      <c r="C5" t="str">
-        <v>小熊博望</v>
-      </c>
-      <c r="D5" t="str">
-        <v>金水区</v>
-      </c>
-      <c r="E5" t="str" xml:space="preserve">
-        <v xml:space="preserve">4k-6k
-                        经验在校/应届 / 本科</v>
-      </c>
-      <c r="F5" t="str" xml:space="preserve">
-        <v xml:space="preserve">4k-6k
-                        经验在校/应届 / 本科</v>
-      </c>
-      <c r="G5" t="str">
-        <v>IT技术服务｜咨询,工具类产品 / 不需要融资 / 150-500人</v>
-      </c>
-    </row>
-    <row r="6" xml:space="preserve">
-      <c r="A6" t="str">
+    <row r="8" xml:space="preserve">
+      <c r="A8" t="str">
         <v>Android</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B8" t="str">
         <v>15k-30k</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C8" t="str">
         <v>卓见软件</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D8" t="str">
         <v>经二路</v>
       </c>
-      <c r="E6" t="str" xml:space="preserve">
+      <c r="E8" t="str" xml:space="preserve">
         <v xml:space="preserve">15k-30k
                         经验5-10年 / 本科</v>
       </c>
-      <c r="F6" t="str" xml:space="preserve">
+      <c r="F8" t="str" xml:space="preserve">
         <v xml:space="preserve">15k-30k
                         经验5-10年 / 本科</v>
       </c>
-      <c r="G6" t="str">
+      <c r="G8" t="str">
         <v>移动互联网 / 不需要融资 / 50-150人</v>
-      </c>
-    </row>
-    <row r="7" xml:space="preserve">
-      <c r="A7" t="str">
-        <v>安卓开发工程师</v>
-      </c>
-      <c r="B7" t="str">
-        <v>6k-8k</v>
-      </c>
-      <c r="C7" t="str">
-        <v>天派信息技术</v>
-      </c>
-      <c r="D7" t="str">
-        <v>高新区</v>
-      </c>
-      <c r="E7" t="str" xml:space="preserve">
-        <v xml:space="preserve">6k-8k
-                        经验3-5年 / 不限</v>
-      </c>
-      <c r="F7" t="str" xml:space="preserve">
-        <v xml:space="preserve">6k-8k
-                        经验3-5年 / 不限</v>
-      </c>
-      <c r="G7" t="str">
-        <v>通讯电子,软件开发 / 未融资 / 15-50人</v>
-      </c>
-    </row>
-    <row r="8" xml:space="preserve">
-      <c r="A8" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B8" t="str">
-        <v>15k-20k</v>
-      </c>
-      <c r="C8" t="str">
-        <v>萨摩耶数科</v>
-      </c>
-      <c r="D8" t="str">
-        <v>管城区</v>
-      </c>
-      <c r="E8" t="str" xml:space="preserve">
-        <v xml:space="preserve">15k-20k
-                        经验5-10年 / 本科</v>
-      </c>
-      <c r="F8" t="str" xml:space="preserve">
-        <v xml:space="preserve">15k-20k
-                        经验5-10年 / 本科</v>
-      </c>
-      <c r="G8" t="str">
-        <v>科技金融 / C轮 / 150-500人</v>
       </c>
     </row>
     <row r="9" xml:space="preserve">
@@ -583,49 +583,49 @@
         <v>android开发工程师</v>
       </c>
       <c r="B9" t="str">
-        <v>6k-9k</v>
+        <v>15k-20k</v>
       </c>
       <c r="C9" t="str">
-        <v>品辰电子</v>
+        <v>萨摩耶数科</v>
       </c>
       <c r="D9" t="str">
-        <v>高新区</v>
+        <v>管城区</v>
       </c>
       <c r="E9" t="str" xml:space="preserve">
-        <v xml:space="preserve">6k-9k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">15k-20k
+                        经验5-10年 / 本科</v>
       </c>
       <c r="F9" t="str" xml:space="preserve">
-        <v xml:space="preserve">6k-9k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">15k-20k
+                        经验5-10年 / 本科</v>
       </c>
       <c r="G9" t="str">
-        <v>医疗丨健康,数据服务 / 未融资 / 50-150人</v>
+        <v>科技金融 / C轮 / 150-500人</v>
       </c>
     </row>
     <row r="10" xml:space="preserve">
       <c r="A10" t="str">
-        <v>Android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>5k-8k</v>
+        <v>6k-9k</v>
       </c>
       <c r="C10" t="str">
-        <v>启邦网络</v>
+        <v>品辰电子</v>
       </c>
       <c r="D10" t="str">
-        <v>无</v>
+        <v>高新区</v>
       </c>
       <c r="E10" t="str" xml:space="preserve">
-        <v xml:space="preserve">5k-8k
-                        经验不限 / 不限</v>
+        <v xml:space="preserve">6k-9k
+                        经验1-3年 / 本科</v>
       </c>
       <c r="F10" t="str" xml:space="preserve">
-        <v xml:space="preserve">5k-8k
-                        经验不限 / 不限</v>
+        <v xml:space="preserve">6k-9k
+                        经验1-3年 / 本科</v>
       </c>
       <c r="G10" t="str">
-        <v>物联网、软件开发 / 未融资 / 少于15人</v>
+        <v>医疗丨健康,数据服务 / 未融资 / 50-150人</v>
       </c>
     </row>
     <row r="11" xml:space="preserve">
@@ -636,46 +636,46 @@
         <v>5k-8k</v>
       </c>
       <c r="C11" t="str">
-        <v>华元嘉信集团</v>
+        <v>启邦网络</v>
       </c>
       <c r="D11" t="str">
-        <v>二七万达</v>
+        <v>无</v>
       </c>
       <c r="E11" t="str" xml:space="preserve">
         <v xml:space="preserve">5k-8k
-                        经验1-3年 / 大专</v>
+                        经验不限 / 不限</v>
       </c>
       <c r="F11" t="str" xml:space="preserve">
         <v xml:space="preserve">5k-8k
-                        经验1-3年 / 大专</v>
+                        经验不限 / 不限</v>
       </c>
       <c r="G11" t="str">
-        <v>贸易｜进出口,智能硬件 / 未融资 / 50-150人</v>
+        <v>物联网、软件开发 / 未融资 / 少于15人</v>
       </c>
     </row>
     <row r="12" xml:space="preserve">
       <c r="A12" t="str">
-        <v>android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B12" t="str">
-        <v>7k-10k</v>
+        <v>5k-8k</v>
       </c>
       <c r="C12" t="str">
-        <v>诺云科技</v>
+        <v>华元嘉信集团</v>
       </c>
       <c r="D12" t="str">
-        <v>高新区</v>
+        <v>二七万达</v>
       </c>
       <c r="E12" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-10k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">5k-8k
+                        经验1-3年 / 大专</v>
       </c>
       <c r="F12" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-10k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">5k-8k
+                        经验1-3年 / 大专</v>
       </c>
       <c r="G12" t="str">
-        <v>移动互联网 / 未融资 / 15-50人</v>
+        <v>贸易｜进出口,智能硬件 / 未融资 / 50-150人</v>
       </c>
     </row>
     <row r="13" xml:space="preserve">
@@ -683,24 +683,24 @@
         <v>android开发工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>8k-10k</v>
+        <v>7k-10k</v>
       </c>
       <c r="C13" t="str">
-        <v>中原通大数据服务</v>
+        <v>诺云科技</v>
       </c>
       <c r="D13" t="str">
-        <v>金水区</v>
+        <v>高新区</v>
       </c>
       <c r="E13" t="str" xml:space="preserve">
-        <v xml:space="preserve">8k-10k
-                        经验不限 / 本科</v>
+        <v xml:space="preserve">7k-10k
+                        经验1-3年 / 本科</v>
       </c>
       <c r="F13" t="str" xml:space="preserve">
-        <v xml:space="preserve">8k-10k
-                        经验不限 / 本科</v>
+        <v xml:space="preserve">7k-10k
+                        经验1-3年 / 本科</v>
       </c>
       <c r="G13" t="str">
-        <v>人工智能,软件开发 / 不需要融资 / 500-2000人</v>
+        <v>移动互联网 / 未融资 / 15-50人</v>
       </c>
     </row>
     <row r="14" xml:space="preserve">
@@ -708,82 +708,82 @@
         <v>android开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>7k-10k</v>
+        <v>8k-10k</v>
       </c>
       <c r="C14" t="str">
-        <v>每天农资</v>
+        <v>中原通大数据服务</v>
       </c>
       <c r="D14" t="str">
         <v>金水区</v>
       </c>
       <c r="E14" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-10k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">8k-10k
+                        经验不限 / 本科</v>
       </c>
       <c r="F14" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-10k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">8k-10k
+                        经验不限 / 本科</v>
       </c>
       <c r="G14" t="str">
-        <v>电商,其他 / 未融资 / 15-50人</v>
+        <v>人工智能,软件开发 / 不需要融资 / 500-2000人</v>
       </c>
     </row>
     <row r="15" xml:space="preserve">
       <c r="A15" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B15" t="str">
+        <v>7k-10k</v>
+      </c>
+      <c r="C15" t="str">
+        <v>每天农资</v>
+      </c>
+      <c r="D15" t="str">
+        <v>金水区</v>
+      </c>
+      <c r="E15" t="str" xml:space="preserve">
+        <v xml:space="preserve">7k-10k
+                        经验1-3年 / 本科</v>
+      </c>
+      <c r="F15" t="str" xml:space="preserve">
+        <v xml:space="preserve">7k-10k
+                        经验1-3年 / 本科</v>
+      </c>
+      <c r="G15" t="str">
+        <v>电商,其他 / 未融资 / 15-50人</v>
+      </c>
+    </row>
+    <row r="16" xml:space="preserve">
+      <c r="A16" t="str">
         <v>Android开发工程师</v>
       </c>
-      <c r="B15" t="str">
+      <c r="B16" t="str">
         <v>6k-10k</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C16" t="str">
         <v>泽尚网络</v>
       </c>
-      <c r="D15" t="str">
+      <c r="D16" t="str">
         <v>高新区</v>
       </c>
-      <c r="E15" t="str" xml:space="preserve">
+      <c r="E16" t="str" xml:space="preserve">
         <v xml:space="preserve">6k-10k
                         经验不限 / 不限</v>
       </c>
-      <c r="F15" t="str" xml:space="preserve">
+      <c r="F16" t="str" xml:space="preserve">
         <v xml:space="preserve">6k-10k
                         经验不限 / 不限</v>
       </c>
-      <c r="G15" t="str">
+      <c r="G16" t="str">
         <v>移动互联网,教育 / 不需要融资 / 15-50人</v>
-      </c>
-    </row>
-    <row r="16" xml:space="preserve">
-      <c r="A16" t="str">
-        <v>高级android开发工程师</v>
-      </c>
-      <c r="B16" t="str">
-        <v>10k-15k</v>
-      </c>
-      <c r="C16" t="str">
-        <v>郑州艾影像文化传播有限公司</v>
-      </c>
-      <c r="D16" t="str">
-        <v>北环路</v>
-      </c>
-      <c r="E16" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-15k
-                        经验3-5年 / 本科</v>
-      </c>
-      <c r="F16" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-15k
-                        经验3-5年 / 本科</v>
-      </c>
-      <c r="G16" t="str">
-        <v>消费生活,电商 / 不需要融资 / 50-150人</v>
       </c>
     </row>
     <row r="17" xml:space="preserve">
       <c r="A17" t="str">
-        <v>Android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>10k-15k</v>
+        <v>15k-25k</v>
       </c>
       <c r="C17" t="str">
         <v>小熊博望</v>
@@ -792,12 +792,12 @@
         <v>金水区</v>
       </c>
       <c r="E17" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-15k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">15k-25k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="F17" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-15k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">15k-25k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="G17" t="str">
         <v>IT技术服务｜咨询,工具类产品 / 不需要融资 / 150-500人</v>
@@ -805,27 +805,27 @@
     </row>
     <row r="18" xml:space="preserve">
       <c r="A18" t="str">
-        <v>安卓开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B18" t="str">
-        <v>7k-11k</v>
+        <v>10k-15k</v>
       </c>
       <c r="C18" t="str">
-        <v>新捷睿智能装备（苏州）股份有限公司</v>
+        <v>郑州艾影像文化传播有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>经开区</v>
+        <v>北环路</v>
       </c>
       <c r="E18" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-11k
-                        经验3-5年 / 大专</v>
+        <v xml:space="preserve">10k-15k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="F18" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-11k
-                        经验3-5年 / 大专</v>
+        <v xml:space="preserve">10k-15k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="G18" t="str">
-        <v>软件开发,物联网 / 不需要融资 / 15-50人</v>
+        <v>消费生活,电商 / 不需要融资 / 50-150人</v>
       </c>
     </row>
     <row r="19" xml:space="preserve">
@@ -833,24 +833,24 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>8k-10k</v>
+        <v>7k-11k</v>
       </c>
       <c r="C19" t="str">
-        <v>飞渡科技</v>
+        <v>新捷睿智能装备（苏州）股份有限公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑东新区</v>
+        <v>经开区</v>
       </c>
       <c r="E19" t="str" xml:space="preserve">
-        <v xml:space="preserve">8k-10k
+        <v xml:space="preserve">7k-11k
                         经验3-5年 / 大专</v>
       </c>
       <c r="F19" t="str" xml:space="preserve">
-        <v xml:space="preserve">8k-10k
+        <v xml:space="preserve">7k-11k
                         经验3-5年 / 大专</v>
       </c>
       <c r="G19" t="str">
-        <v>金融,工具 / 不需要融资 / 15-50人</v>
+        <v>软件开发,物联网 / 不需要融资 / 15-50人</v>
       </c>
     </row>
     <row r="20" xml:space="preserve">
@@ -858,274 +858,274 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>10k-15k</v>
+        <v>8k-10k</v>
       </c>
       <c r="C20" t="str">
-        <v>建达软件</v>
+        <v>飞渡科技</v>
       </c>
       <c r="D20" t="str">
-        <v>经开区</v>
+        <v>郑东新区</v>
       </c>
       <c r="E20" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-15k
-                        经验3-5年 / 本科</v>
+        <v xml:space="preserve">8k-10k
+                        经验3-5年 / 大专</v>
       </c>
       <c r="F20" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-15k
-                        经验3-5年 / 本科</v>
+        <v xml:space="preserve">8k-10k
+                        经验3-5年 / 大专</v>
       </c>
       <c r="G20" t="str">
-        <v>企业服务,软件开发 / 未融资 / 15-50人</v>
+        <v>金融,工具 / 不需要融资 / 15-50人</v>
       </c>
     </row>
     <row r="21" xml:space="preserve">
       <c r="A21" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B21" t="str">
+        <v>10k-15k</v>
+      </c>
+      <c r="C21" t="str">
+        <v>建达软件</v>
+      </c>
+      <c r="D21" t="str">
+        <v>经开区</v>
+      </c>
+      <c r="E21" t="str" xml:space="preserve">
+        <v xml:space="preserve">10k-15k
+                        经验3-5年 / 本科</v>
+      </c>
+      <c r="F21" t="str" xml:space="preserve">
+        <v xml:space="preserve">10k-15k
+                        经验3-5年 / 本科</v>
+      </c>
+      <c r="G21" t="str">
+        <v>企业服务,软件开发 / 未融资 / 15-50人</v>
+      </c>
+    </row>
+    <row r="22" xml:space="preserve">
+      <c r="A22" t="str">
         <v>android开发工程师</v>
       </c>
-      <c r="B21" t="str">
+      <c r="B22" t="str">
         <v>5k-8k</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C22" t="str">
         <v>东方蓝深</v>
       </c>
-      <c r="D21" t="str">
+      <c r="D22" t="str">
         <v>二七区</v>
       </c>
-      <c r="E21" t="str" xml:space="preserve">
+      <c r="E22" t="str" xml:space="preserve">
         <v xml:space="preserve">5k-8k
                         经验不限 / 本科</v>
       </c>
-      <c r="F21" t="str" xml:space="preserve">
+      <c r="F22" t="str" xml:space="preserve">
         <v xml:space="preserve">5k-8k
                         经验不限 / 本科</v>
       </c>
-      <c r="G21" t="str">
+      <c r="G22" t="str">
         <v>企业服务 / 不需要融资 / 50-150人</v>
       </c>
     </row>
-    <row r="22" xml:space="preserve">
-      <c r="A22" t="str">
+    <row r="23" xml:space="preserve">
+      <c r="A23" t="str">
         <v>Android开发工程师</v>
       </c>
-      <c r="B22" t="str">
+      <c r="B23" t="str">
         <v>6k-9k</v>
       </c>
-      <c r="C22" t="str">
+      <c r="C23" t="str">
         <v>泽尚网络</v>
       </c>
-      <c r="D22" t="str">
+      <c r="D23" t="str">
         <v>中原区</v>
       </c>
-      <c r="E22" t="str" xml:space="preserve">
+      <c r="E23" t="str" xml:space="preserve">
         <v xml:space="preserve">6k-9k
                         经验3-5年 / 不限</v>
       </c>
-      <c r="F22" t="str" xml:space="preserve">
+      <c r="F23" t="str" xml:space="preserve">
         <v xml:space="preserve">6k-9k
                         经验3-5年 / 不限</v>
       </c>
-      <c r="G22" t="str">
+      <c r="G23" t="str">
         <v>移动互联网,教育 / 不需要融资 / 15-50人</v>
-      </c>
-    </row>
-    <row r="23" xml:space="preserve">
-      <c r="A23" t="str">
-        <v>安卓开发工程师</v>
-      </c>
-      <c r="B23" t="str">
-        <v>8k-10k</v>
-      </c>
-      <c r="C23" t="str">
-        <v>咿啦看书</v>
-      </c>
-      <c r="D23" t="str">
-        <v>金水区</v>
-      </c>
-      <c r="E23" t="str" xml:space="preserve">
-        <v xml:space="preserve">8k-10k
-                        经验3-5年 / 本科</v>
-      </c>
-      <c r="F23" t="str" xml:space="preserve">
-        <v xml:space="preserve">8k-10k
-                        经验3-5年 / 本科</v>
-      </c>
-      <c r="G23" t="str">
-        <v>工具类产品,软件服务｜咨询 / A轮 / 150-500人</v>
       </c>
     </row>
     <row r="24" xml:space="preserve">
       <c r="A24" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B24" t="str">
+        <v>8k-10k</v>
+      </c>
+      <c r="C24" t="str">
+        <v>咿啦看书</v>
+      </c>
+      <c r="D24" t="str">
+        <v>金水区</v>
+      </c>
+      <c r="E24" t="str" xml:space="preserve">
+        <v xml:space="preserve">8k-10k
+                        经验3-5年 / 本科</v>
+      </c>
+      <c r="F24" t="str" xml:space="preserve">
+        <v xml:space="preserve">8k-10k
+                        经验3-5年 / 本科</v>
+      </c>
+      <c r="G24" t="str">
+        <v>工具类产品,软件服务｜咨询 / A轮 / 150-500人</v>
+      </c>
+    </row>
+    <row r="25" xml:space="preserve">
+      <c r="A25" t="str">
         <v>Android前端工程师</v>
       </c>
-      <c r="B24" t="str">
+      <c r="B25" t="str">
         <v>9k-15k</v>
       </c>
-      <c r="C24" t="str">
+      <c r="C25" t="str">
         <v>春永软件</v>
       </c>
-      <c r="D24" t="str">
+      <c r="D25" t="str">
         <v>郑东新区</v>
       </c>
-      <c r="E24" t="str" xml:space="preserve">
+      <c r="E25" t="str" xml:space="preserve">
         <v xml:space="preserve">9k-15k
                         经验3-5年 / 大专</v>
       </c>
-      <c r="F24" t="str" xml:space="preserve">
+      <c r="F25" t="str" xml:space="preserve">
         <v xml:space="preserve">9k-15k
                         经验3-5年 / 大专</v>
       </c>
-      <c r="G24" t="str">
+      <c r="G25" t="str">
         <v>MCN｜直播平台 / 不需要融资 / 15-50人</v>
-      </c>
-    </row>
-    <row r="25" xml:space="preserve">
-      <c r="A25" t="str">
-        <v>移动端开发（Android）</v>
-      </c>
-      <c r="B25" t="str">
-        <v>6k-8k</v>
-      </c>
-      <c r="C25" t="str">
-        <v>豪弘电子商务集团有限公司</v>
-      </c>
-      <c r="D25" t="str">
-        <v>郑东新区</v>
-      </c>
-      <c r="E25" t="str" xml:space="preserve">
-        <v xml:space="preserve">6k-8k
-                        经验1-3年 / 本科</v>
-      </c>
-      <c r="F25" t="str" xml:space="preserve">
-        <v xml:space="preserve">6k-8k
-                        经验1-3年 / 本科</v>
-      </c>
-      <c r="G25" t="str">
-        <v>金融,其他 / 上市公司 / 150-500人</v>
       </c>
     </row>
     <row r="26" xml:space="preserve">
       <c r="A26" t="str">
+        <v>移动端开发（Android）</v>
+      </c>
+      <c r="B26" t="str">
+        <v>6k-8k</v>
+      </c>
+      <c r="C26" t="str">
+        <v>豪弘电子商务集团有限公司</v>
+      </c>
+      <c r="D26" t="str">
+        <v>郑东新区</v>
+      </c>
+      <c r="E26" t="str" xml:space="preserve">
+        <v xml:space="preserve">6k-8k
+                        经验1-3年 / 本科</v>
+      </c>
+      <c r="F26" t="str" xml:space="preserve">
+        <v xml:space="preserve">6k-8k
+                        经验1-3年 / 本科</v>
+      </c>
+      <c r="G26" t="str">
+        <v>金融,其他 / 上市公司 / 150-500人</v>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
+      <c r="A27" t="str">
         <v>安卓android开发工程师</v>
       </c>
-      <c r="B26" t="str">
+      <c r="B27" t="str">
         <v>8k-12k</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C27" t="str">
         <v>八角信息</v>
       </c>
-      <c r="D26" t="str">
+      <c r="D27" t="str">
         <v>管城回族区</v>
       </c>
-      <c r="E26" t="str" xml:space="preserve">
+      <c r="E27" t="str" xml:space="preserve">
         <v xml:space="preserve">8k-12k
                         经验3-5年 / 大专</v>
       </c>
-      <c r="F26" t="str" xml:space="preserve">
+      <c r="F27" t="str" xml:space="preserve">
         <v xml:space="preserve">8k-12k
                         经验3-5年 / 大专</v>
       </c>
-      <c r="G26" t="str">
+      <c r="G27" t="str">
         <v>移动互联网 / 未融资 / 15-50人</v>
       </c>
     </row>
-    <row r="27" xml:space="preserve">
-      <c r="A27" t="str">
+    <row r="28" xml:space="preserve">
+      <c r="A28" t="str">
         <v>android开发工程师</v>
       </c>
-      <c r="B27" t="str">
+      <c r="B28" t="str">
         <v>1k-2k</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C28" t="str">
         <v>秀企科技</v>
       </c>
-      <c r="D27" t="str">
+      <c r="D28" t="str">
         <v>中原区</v>
       </c>
-      <c r="E27" t="str" xml:space="preserve">
+      <c r="E28" t="str" xml:space="preserve">
         <v xml:space="preserve">1k-2k
                         经验不限 / 不限</v>
       </c>
-      <c r="F27" t="str" xml:space="preserve">
+      <c r="F28" t="str" xml:space="preserve">
         <v xml:space="preserve">1k-2k
                         经验不限 / 不限</v>
       </c>
-      <c r="G27" t="str">
+      <c r="G28" t="str">
         <v>企业服务 / 未融资 / 15-50人</v>
-      </c>
-    </row>
-    <row r="28" xml:space="preserve">
-      <c r="A28" t="str">
-        <v>Android开发工程师</v>
-      </c>
-      <c r="B28" t="str">
-        <v>8k-10k</v>
-      </c>
-      <c r="C28" t="str">
-        <v>中康荣华</v>
-      </c>
-      <c r="D28" t="str">
-        <v>管城回族区</v>
-      </c>
-      <c r="E28" t="str" xml:space="preserve">
-        <v xml:space="preserve">8k-10k
-                        经验3-5年 / 本科</v>
-      </c>
-      <c r="F28" t="str" xml:space="preserve">
-        <v xml:space="preserve">8k-10k
-                        经验3-5年 / 本科</v>
-      </c>
-      <c r="G28" t="str">
-        <v>软件服务｜咨询,生活服务 / 未融资 / 15-50人</v>
       </c>
     </row>
     <row r="29" xml:space="preserve">
       <c r="A29" t="str">
-        <v>Android</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B29" t="str">
-        <v>5k-10k</v>
+        <v>8k-10k</v>
       </c>
       <c r="C29" t="str">
-        <v>大河网</v>
+        <v>中康荣华</v>
       </c>
       <c r="D29" t="str">
-        <v>中原区</v>
+        <v>管城回族区</v>
       </c>
       <c r="E29" t="str" xml:space="preserve">
-        <v xml:space="preserve">5k-10k
+        <v xml:space="preserve">8k-10k
                         经验3-5年 / 本科</v>
       </c>
       <c r="F29" t="str" xml:space="preserve">
-        <v xml:space="preserve">5k-10k
+        <v xml:space="preserve">8k-10k
                         经验3-5年 / 本科</v>
       </c>
       <c r="G29" t="str">
-        <v>内容资讯,内容社区 / 不需要融资 / 150-500人</v>
+        <v>软件服务｜咨询,生活服务 / 未融资 / 15-50人</v>
       </c>
     </row>
     <row r="30" xml:space="preserve">
       <c r="A30" t="str">
-        <v>安卓android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B30" t="str">
-        <v>7k-8k</v>
+        <v>5k-10k</v>
       </c>
       <c r="C30" t="str">
-        <v>小牛信息</v>
+        <v>大河网</v>
       </c>
       <c r="D30" t="str">
-        <v>管城回族区</v>
+        <v>中原区</v>
       </c>
       <c r="E30" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-8k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">5k-10k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="F30" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-8k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">5k-10k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="G30" t="str">
-        <v>软件开发 / 未融资 / 15-50人</v>
+        <v>内容资讯,内容社区 / 不需要融资 / 150-500人</v>
       </c>
     </row>
     <row r="31" xml:space="preserve">
@@ -1133,54 +1133,79 @@
         <v>安卓android开发工程师</v>
       </c>
       <c r="B31" t="str">
-        <v>10k-13k</v>
+        <v>7k-8k</v>
       </c>
       <c r="C31" t="str">
-        <v>木歌科技</v>
+        <v>小牛信息</v>
       </c>
       <c r="D31" t="str">
         <v>管城回族区</v>
       </c>
       <c r="E31" t="str" xml:space="preserve">
+        <v xml:space="preserve">7k-8k
+                        经验1-3年 / 本科</v>
+      </c>
+      <c r="F31" t="str" xml:space="preserve">
+        <v xml:space="preserve">7k-8k
+                        经验1-3年 / 本科</v>
+      </c>
+      <c r="G31" t="str">
+        <v>软件开发 / 未融资 / 15-50人</v>
+      </c>
+    </row>
+    <row r="32" xml:space="preserve">
+      <c r="A32" t="str">
+        <v>安卓android开发工程师</v>
+      </c>
+      <c r="B32" t="str">
+        <v>10k-13k</v>
+      </c>
+      <c r="C32" t="str">
+        <v>木歌科技</v>
+      </c>
+      <c r="D32" t="str">
+        <v>管城回族区</v>
+      </c>
+      <c r="E32" t="str" xml:space="preserve">
         <v xml:space="preserve">10k-13k
                         经验3-5年 / 大专</v>
       </c>
-      <c r="F31" t="str" xml:space="preserve">
+      <c r="F32" t="str" xml:space="preserve">
         <v xml:space="preserve">10k-13k
                         经验3-5年 / 大专</v>
       </c>
-      <c r="G31" t="str">
+      <c r="G32" t="str">
         <v>社交,房产家居 / 天使轮 / 少于15人</v>
       </c>
     </row>
-    <row r="32" xml:space="preserve">
-      <c r="A32" t="str">
-        <v>高级android开发工程师</v>
-      </c>
-      <c r="B32" t="str">
-        <v>15k-25k</v>
-      </c>
-      <c r="C32" t="str">
+    <row r="33" xml:space="preserve">
+      <c r="A33" t="str">
+        <v>Android实习工程师</v>
+      </c>
+      <c r="B33" t="str">
+        <v>4k-6k</v>
+      </c>
+      <c r="C33" t="str">
         <v>小熊博望</v>
       </c>
-      <c r="D32" t="str">
+      <c r="D33" t="str">
         <v>金水区</v>
       </c>
-      <c r="E32" t="str" xml:space="preserve">
-        <v xml:space="preserve">15k-25k
-                        经验3-5年 / 本科</v>
-      </c>
-      <c r="F32" t="str" xml:space="preserve">
-        <v xml:space="preserve">15k-25k
-                        经验3-5年 / 本科</v>
-      </c>
-      <c r="G32" t="str">
+      <c r="E33" t="str" xml:space="preserve">
+        <v xml:space="preserve">4k-6k
+                        经验在校/应届 / 本科</v>
+      </c>
+      <c r="F33" t="str" xml:space="preserve">
+        <v xml:space="preserve">4k-6k
+                        经验在校/应届 / 本科</v>
+      </c>
+      <c r="G33" t="str">
         <v>IT技术服务｜咨询,工具类产品 / 不需要融资 / 150-500人</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G32"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G33"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/招聘求职信息-招聘网站-人才网-拉勾招聘.xlsx
+++ b/app/src/main/assets/招聘求职信息-招聘网站-人才网-拉勾招聘.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -430,35 +430,35 @@
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" t="str">
-        <v>安卓开发工程师</v>
+        <v>Android(安卓)软件开发工程师</v>
       </c>
       <c r="B3" t="str">
         <v>6k-8k</v>
       </c>
       <c r="C3" t="str">
-        <v>天派信息技术</v>
+        <v>华军融创</v>
       </c>
       <c r="D3" t="str">
-        <v>高新区</v>
+        <v>中原区</v>
       </c>
       <c r="E3" t="str" xml:space="preserve">
         <v xml:space="preserve">6k-8k
-                        经验3-5年 / 不限</v>
+                        经验不限 / 本科</v>
       </c>
       <c r="F3" t="str" xml:space="preserve">
         <v xml:space="preserve">6k-8k
-                        经验3-5年 / 不限</v>
+                        经验不限 / 本科</v>
       </c>
       <c r="G3" t="str">
-        <v>通讯电子,软件开发 / 未融资 / 15-50人</v>
+        <v>软件服务｜咨询,IT技术服务｜咨询 / 未融资 / 15-50人</v>
       </c>
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4" t="str">
-        <v>Android开发工程师</v>
+        <v>Android实习工程师</v>
       </c>
       <c r="B4" t="str">
-        <v>10k-15k</v>
+        <v>4k-6k</v>
       </c>
       <c r="C4" t="str">
         <v>小熊博望</v>
@@ -467,12 +467,12 @@
         <v>金水区</v>
       </c>
       <c r="E4" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-15k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">4k-6k
+                        经验在校/应届 / 本科</v>
       </c>
       <c r="F4" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-15k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">4k-6k
+                        经验在校/应届 / 本科</v>
       </c>
       <c r="G4" t="str">
         <v>IT技术服务｜咨询,工具类产品 / 不需要融资 / 150-500人</v>
@@ -480,102 +480,102 @@
     </row>
     <row r="5" xml:space="preserve">
       <c r="A5" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B5" t="str">
+        <v>7k-10k</v>
+      </c>
+      <c r="C5" t="str">
+        <v>诺云科技</v>
+      </c>
+      <c r="D5" t="str">
+        <v>高新区</v>
+      </c>
+      <c r="E5" t="str" xml:space="preserve">
+        <v xml:space="preserve">7k-10k
+                        经验1-3年 / 本科</v>
+      </c>
+      <c r="F5" t="str" xml:space="preserve">
+        <v xml:space="preserve">7k-10k
+                        经验1-3年 / 本科</v>
+      </c>
+      <c r="G5" t="str">
+        <v>移动互联网 / 未融资 / 15-50人</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
+      <c r="A6" t="str">
+        <v>安卓程序员加班有加班费</v>
+      </c>
+      <c r="B6" t="str">
+        <v>7k-12k</v>
+      </c>
+      <c r="C6" t="str">
+        <v>领红网络</v>
+      </c>
+      <c r="D6" t="str">
+        <v>北环</v>
+      </c>
+      <c r="E6" t="str" xml:space="preserve">
+        <v xml:space="preserve">7k-12k
+                        经验1-3年 / 不限</v>
+      </c>
+      <c r="F6" t="str" xml:space="preserve">
+        <v xml:space="preserve">7k-12k
+                        经验1-3年 / 不限</v>
+      </c>
+      <c r="G6" t="str">
+        <v>软件开发,区块链 / 未融资 / 15-50人</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
+      <c r="A7" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B7" t="str">
+        <v>6k-8k</v>
+      </c>
+      <c r="C7" t="str">
+        <v>天派信息技术</v>
+      </c>
+      <c r="D7" t="str">
+        <v>高新区</v>
+      </c>
+      <c r="E7" t="str" xml:space="preserve">
+        <v xml:space="preserve">6k-8k
+                        经验3-5年 / 不限</v>
+      </c>
+      <c r="F7" t="str" xml:space="preserve">
+        <v xml:space="preserve">6k-8k
+                        经验3-5年 / 不限</v>
+      </c>
+      <c r="G7" t="str">
+        <v>通讯电子,软件开发 / 未融资 / 15-50人</v>
+      </c>
+    </row>
+    <row r="8" xml:space="preserve">
+      <c r="A8" t="str">
         <v>安卓android开发工程师</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B8" t="str">
         <v>8k-12k</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C8" t="str">
         <v>匠库信息</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D8" t="str">
         <v>二七区</v>
       </c>
-      <c r="E5" t="str" xml:space="preserve">
+      <c r="E8" t="str" xml:space="preserve">
         <v xml:space="preserve">8k-12k
                         经验3-5年 / 不限</v>
       </c>
-      <c r="F5" t="str" xml:space="preserve">
+      <c r="F8" t="str" xml:space="preserve">
         <v xml:space="preserve">8k-12k
                         经验3-5年 / 不限</v>
       </c>
-      <c r="G5" t="str">
+      <c r="G8" t="str">
         <v>软件服务｜咨询,IT技术服务｜咨询 / 不需要融资 / 15-50人</v>
-      </c>
-    </row>
-    <row r="6" xml:space="preserve">
-      <c r="A6" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B6" t="str">
-        <v>7k-12k</v>
-      </c>
-      <c r="C6" t="str">
-        <v>优量科技</v>
-      </c>
-      <c r="D6" t="str">
-        <v>淮河路</v>
-      </c>
-      <c r="E6" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-12k
-                        经验1-3年 / 本科</v>
-      </c>
-      <c r="F6" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-12k
-                        经验1-3年 / 本科</v>
-      </c>
-      <c r="G6" t="str">
-        <v>软件开发 / 未融资 / 少于15人</v>
-      </c>
-    </row>
-    <row r="7" xml:space="preserve">
-      <c r="A7" t="str">
-        <v>Android(安卓)软件开发工程师</v>
-      </c>
-      <c r="B7" t="str">
-        <v>6k-8k</v>
-      </c>
-      <c r="C7" t="str">
-        <v>华军融创</v>
-      </c>
-      <c r="D7" t="str">
-        <v>中原区</v>
-      </c>
-      <c r="E7" t="str" xml:space="preserve">
-        <v xml:space="preserve">6k-8k
-                        经验不限 / 本科</v>
-      </c>
-      <c r="F7" t="str" xml:space="preserve">
-        <v xml:space="preserve">6k-8k
-                        经验不限 / 本科</v>
-      </c>
-      <c r="G7" t="str">
-        <v>软件服务｜咨询,IT技术服务｜咨询 / 未融资 / 15-50人</v>
-      </c>
-    </row>
-    <row r="8" xml:space="preserve">
-      <c r="A8" t="str">
-        <v>Android</v>
-      </c>
-      <c r="B8" t="str">
-        <v>15k-30k</v>
-      </c>
-      <c r="C8" t="str">
-        <v>卓见软件</v>
-      </c>
-      <c r="D8" t="str">
-        <v>经二路</v>
-      </c>
-      <c r="E8" t="str" xml:space="preserve">
-        <v xml:space="preserve">15k-30k
-                        经验5-10年 / 本科</v>
-      </c>
-      <c r="F8" t="str" xml:space="preserve">
-        <v xml:space="preserve">15k-30k
-                        经验5-10年 / 本科</v>
-      </c>
-      <c r="G8" t="str">
-        <v>移动互联网 / 不需要融资 / 50-150人</v>
       </c>
     </row>
     <row r="9" xml:space="preserve">
@@ -583,149 +583,149 @@
         <v>android开发工程师</v>
       </c>
       <c r="B9" t="str">
+        <v>7k-12k</v>
+      </c>
+      <c r="C9" t="str">
+        <v>优量科技</v>
+      </c>
+      <c r="D9" t="str">
+        <v>淮河路</v>
+      </c>
+      <c r="E9" t="str" xml:space="preserve">
+        <v xml:space="preserve">7k-12k
+                        经验1-3年 / 本科</v>
+      </c>
+      <c r="F9" t="str" xml:space="preserve">
+        <v xml:space="preserve">7k-12k
+                        经验1-3年 / 本科</v>
+      </c>
+      <c r="G9" t="str">
+        <v>软件开发 / 未融资 / 少于15人</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
+      <c r="A10" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B10" t="str">
+        <v>15k-30k</v>
+      </c>
+      <c r="C10" t="str">
+        <v>卓见软件</v>
+      </c>
+      <c r="D10" t="str">
+        <v>经二路</v>
+      </c>
+      <c r="E10" t="str" xml:space="preserve">
+        <v xml:space="preserve">15k-30k
+                        经验5-10年 / 本科</v>
+      </c>
+      <c r="F10" t="str" xml:space="preserve">
+        <v xml:space="preserve">15k-30k
+                        经验5-10年 / 本科</v>
+      </c>
+      <c r="G10" t="str">
+        <v>移动互联网 / 不需要融资 / 50-150人</v>
+      </c>
+    </row>
+    <row r="11" xml:space="preserve">
+      <c r="A11" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B11" t="str">
         <v>15k-20k</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C11" t="str">
         <v>萨摩耶数科</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D11" t="str">
         <v>管城区</v>
       </c>
-      <c r="E9" t="str" xml:space="preserve">
+      <c r="E11" t="str" xml:space="preserve">
         <v xml:space="preserve">15k-20k
                         经验5-10年 / 本科</v>
       </c>
-      <c r="F9" t="str" xml:space="preserve">
+      <c r="F11" t="str" xml:space="preserve">
         <v xml:space="preserve">15k-20k
                         经验5-10年 / 本科</v>
       </c>
-      <c r="G9" t="str">
+      <c r="G11" t="str">
         <v>科技金融 / C轮 / 150-500人</v>
       </c>
     </row>
-    <row r="10" xml:space="preserve">
-      <c r="A10" t="str">
+    <row r="12" xml:space="preserve">
+      <c r="A12" t="str">
         <v>android开发工程师</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B12" t="str">
         <v>6k-9k</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C12" t="str">
         <v>品辰电子</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D12" t="str">
         <v>高新区</v>
       </c>
-      <c r="E10" t="str" xml:space="preserve">
+      <c r="E12" t="str" xml:space="preserve">
         <v xml:space="preserve">6k-9k
                         经验1-3年 / 本科</v>
       </c>
-      <c r="F10" t="str" xml:space="preserve">
+      <c r="F12" t="str" xml:space="preserve">
         <v xml:space="preserve">6k-9k
                         经验1-3年 / 本科</v>
       </c>
-      <c r="G10" t="str">
+      <c r="G12" t="str">
         <v>医疗丨健康,数据服务 / 未融资 / 50-150人</v>
       </c>
     </row>
-    <row r="11" xml:space="preserve">
-      <c r="A11" t="str">
+    <row r="13" xml:space="preserve">
+      <c r="A13" t="str">
         <v>Android开发工程师</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B13" t="str">
         <v>5k-8k</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C13" t="str">
         <v>启邦网络</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D13" t="str">
         <v>无</v>
       </c>
-      <c r="E11" t="str" xml:space="preserve">
+      <c r="E13" t="str" xml:space="preserve">
         <v xml:space="preserve">5k-8k
                         经验不限 / 不限</v>
       </c>
-      <c r="F11" t="str" xml:space="preserve">
+      <c r="F13" t="str" xml:space="preserve">
         <v xml:space="preserve">5k-8k
                         经验不限 / 不限</v>
       </c>
-      <c r="G11" t="str">
+      <c r="G13" t="str">
         <v>物联网、软件开发 / 未融资 / 少于15人</v>
       </c>
     </row>
-    <row r="12" xml:space="preserve">
-      <c r="A12" t="str">
+    <row r="14" xml:space="preserve">
+      <c r="A14" t="str">
         <v>Android开发工程师</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B14" t="str">
         <v>5k-8k</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C14" t="str">
         <v>华元嘉信集团</v>
       </c>
-      <c r="D12" t="str">
+      <c r="D14" t="str">
         <v>二七万达</v>
       </c>
-      <c r="E12" t="str" xml:space="preserve">
+      <c r="E14" t="str" xml:space="preserve">
         <v xml:space="preserve">5k-8k
                         经验1-3年 / 大专</v>
       </c>
-      <c r="F12" t="str" xml:space="preserve">
+      <c r="F14" t="str" xml:space="preserve">
         <v xml:space="preserve">5k-8k
                         经验1-3年 / 大专</v>
       </c>
-      <c r="G12" t="str">
+      <c r="G14" t="str">
         <v>贸易｜进出口,智能硬件 / 未融资 / 50-150人</v>
-      </c>
-    </row>
-    <row r="13" xml:space="preserve">
-      <c r="A13" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B13" t="str">
-        <v>7k-10k</v>
-      </c>
-      <c r="C13" t="str">
-        <v>诺云科技</v>
-      </c>
-      <c r="D13" t="str">
-        <v>高新区</v>
-      </c>
-      <c r="E13" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-10k
-                        经验1-3年 / 本科</v>
-      </c>
-      <c r="F13" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-10k
-                        经验1-3年 / 本科</v>
-      </c>
-      <c r="G13" t="str">
-        <v>移动互联网 / 未融资 / 15-50人</v>
-      </c>
-    </row>
-    <row r="14" xml:space="preserve">
-      <c r="A14" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B14" t="str">
-        <v>8k-10k</v>
-      </c>
-      <c r="C14" t="str">
-        <v>中原通大数据服务</v>
-      </c>
-      <c r="D14" t="str">
-        <v>金水区</v>
-      </c>
-      <c r="E14" t="str" xml:space="preserve">
-        <v xml:space="preserve">8k-10k
-                        经验不限 / 本科</v>
-      </c>
-      <c r="F14" t="str" xml:space="preserve">
-        <v xml:space="preserve">8k-10k
-                        经验不限 / 本科</v>
-      </c>
-      <c r="G14" t="str">
-        <v>人工智能,软件开发 / 不需要融资 / 500-2000人</v>
       </c>
     </row>
     <row r="15" xml:space="preserve">
@@ -733,124 +733,124 @@
         <v>android开发工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>7k-10k</v>
+        <v>8k-10k</v>
       </c>
       <c r="C15" t="str">
-        <v>每天农资</v>
+        <v>中原通大数据服务</v>
       </c>
       <c r="D15" t="str">
         <v>金水区</v>
       </c>
       <c r="E15" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-10k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">8k-10k
+                        经验不限 / 本科</v>
       </c>
       <c r="F15" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-10k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">8k-10k
+                        经验不限 / 本科</v>
       </c>
       <c r="G15" t="str">
-        <v>电商,其他 / 未融资 / 15-50人</v>
+        <v>人工智能,软件开发 / 不需要融资 / 500-2000人</v>
       </c>
     </row>
     <row r="16" xml:space="preserve">
       <c r="A16" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B16" t="str">
+        <v>7k-10k</v>
+      </c>
+      <c r="C16" t="str">
+        <v>每天农资</v>
+      </c>
+      <c r="D16" t="str">
+        <v>金水区</v>
+      </c>
+      <c r="E16" t="str" xml:space="preserve">
+        <v xml:space="preserve">7k-10k
+                        经验1-3年 / 本科</v>
+      </c>
+      <c r="F16" t="str" xml:space="preserve">
+        <v xml:space="preserve">7k-10k
+                        经验1-3年 / 本科</v>
+      </c>
+      <c r="G16" t="str">
+        <v>电商,其他 / 未融资 / 15-50人</v>
+      </c>
+    </row>
+    <row r="17" xml:space="preserve">
+      <c r="A17" t="str">
         <v>Android开发工程师</v>
       </c>
-      <c r="B16" t="str">
+      <c r="B17" t="str">
+        <v>10k-15k</v>
+      </c>
+      <c r="C17" t="str">
+        <v>小熊博望</v>
+      </c>
+      <c r="D17" t="str">
+        <v>金水区</v>
+      </c>
+      <c r="E17" t="str" xml:space="preserve">
+        <v xml:space="preserve">10k-15k
+                        经验1-3年 / 本科</v>
+      </c>
+      <c r="F17" t="str" xml:space="preserve">
+        <v xml:space="preserve">10k-15k
+                        经验1-3年 / 本科</v>
+      </c>
+      <c r="G17" t="str">
+        <v>IT技术服务｜咨询,工具类产品 / 不需要融资 / 150-500人</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
+      <c r="A18" t="str">
+        <v>Android开发工程师</v>
+      </c>
+      <c r="B18" t="str">
         <v>6k-10k</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C18" t="str">
         <v>泽尚网络</v>
       </c>
-      <c r="D16" t="str">
+      <c r="D18" t="str">
         <v>高新区</v>
       </c>
-      <c r="E16" t="str" xml:space="preserve">
+      <c r="E18" t="str" xml:space="preserve">
         <v xml:space="preserve">6k-10k
                         经验不限 / 不限</v>
       </c>
-      <c r="F16" t="str" xml:space="preserve">
+      <c r="F18" t="str" xml:space="preserve">
         <v xml:space="preserve">6k-10k
                         经验不限 / 不限</v>
       </c>
-      <c r="G16" t="str">
+      <c r="G18" t="str">
         <v>移动互联网,教育 / 不需要融资 / 15-50人</v>
-      </c>
-    </row>
-    <row r="17" xml:space="preserve">
-      <c r="A17" t="str">
-        <v>高级android开发工程师</v>
-      </c>
-      <c r="B17" t="str">
-        <v>15k-25k</v>
-      </c>
-      <c r="C17" t="str">
-        <v>小熊博望</v>
-      </c>
-      <c r="D17" t="str">
-        <v>金水区</v>
-      </c>
-      <c r="E17" t="str" xml:space="preserve">
-        <v xml:space="preserve">15k-25k
-                        经验3-5年 / 本科</v>
-      </c>
-      <c r="F17" t="str" xml:space="preserve">
-        <v xml:space="preserve">15k-25k
-                        经验3-5年 / 本科</v>
-      </c>
-      <c r="G17" t="str">
-        <v>IT技术服务｜咨询,工具类产品 / 不需要融资 / 150-500人</v>
-      </c>
-    </row>
-    <row r="18" xml:space="preserve">
-      <c r="A18" t="str">
-        <v>高级android开发工程师</v>
-      </c>
-      <c r="B18" t="str">
-        <v>10k-15k</v>
-      </c>
-      <c r="C18" t="str">
-        <v>郑州艾影像文化传播有限公司</v>
-      </c>
-      <c r="D18" t="str">
-        <v>北环路</v>
-      </c>
-      <c r="E18" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-15k
-                        经验3-5年 / 本科</v>
-      </c>
-      <c r="F18" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-15k
-                        经验3-5年 / 本科</v>
-      </c>
-      <c r="G18" t="str">
-        <v>消费生活,电商 / 不需要融资 / 50-150人</v>
       </c>
     </row>
     <row r="19" xml:space="preserve">
       <c r="A19" t="str">
-        <v>安卓开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>7k-11k</v>
+        <v>10k-15k</v>
       </c>
       <c r="C19" t="str">
-        <v>新捷睿智能装备（苏州）股份有限公司</v>
+        <v>郑州艾影像文化传播有限公司</v>
       </c>
       <c r="D19" t="str">
-        <v>经开区</v>
+        <v>北环路</v>
       </c>
       <c r="E19" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-11k
-                        经验3-5年 / 大专</v>
+        <v xml:space="preserve">10k-15k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="F19" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-11k
-                        经验3-5年 / 大专</v>
+        <v xml:space="preserve">10k-15k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="G19" t="str">
-        <v>软件开发,物联网 / 不需要融资 / 15-50人</v>
+        <v>消费生活,电商 / 不需要融资 / 50-150人</v>
       </c>
     </row>
     <row r="20" xml:space="preserve">
@@ -858,24 +858,24 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>8k-10k</v>
+        <v>7k-11k</v>
       </c>
       <c r="C20" t="str">
-        <v>飞渡科技</v>
+        <v>新捷睿智能装备（苏州）股份有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑东新区</v>
+        <v>经开区</v>
       </c>
       <c r="E20" t="str" xml:space="preserve">
-        <v xml:space="preserve">8k-10k
+        <v xml:space="preserve">7k-11k
                         经验3-5年 / 大专</v>
       </c>
       <c r="F20" t="str" xml:space="preserve">
-        <v xml:space="preserve">8k-10k
+        <v xml:space="preserve">7k-11k
                         经验3-5年 / 大专</v>
       </c>
       <c r="G20" t="str">
-        <v>金融,工具 / 不需要融资 / 15-50人</v>
+        <v>软件开发,物联网 / 不需要融资 / 15-50人</v>
       </c>
     </row>
     <row r="21" xml:space="preserve">
@@ -883,74 +883,74 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>10k-15k</v>
+        <v>8k-10k</v>
       </c>
       <c r="C21" t="str">
-        <v>建达软件</v>
+        <v>飞渡科技</v>
       </c>
       <c r="D21" t="str">
-        <v>经开区</v>
+        <v>郑东新区</v>
       </c>
       <c r="E21" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-15k
-                        经验3-5年 / 本科</v>
+        <v xml:space="preserve">8k-10k
+                        经验3-5年 / 大专</v>
       </c>
       <c r="F21" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-15k
-                        经验3-5年 / 本科</v>
+        <v xml:space="preserve">8k-10k
+                        经验3-5年 / 大专</v>
       </c>
       <c r="G21" t="str">
-        <v>企业服务,软件开发 / 未融资 / 15-50人</v>
+        <v>金融,工具 / 不需要融资 / 15-50人</v>
       </c>
     </row>
     <row r="22" xml:space="preserve">
       <c r="A22" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B22" t="str">
+        <v>10k-15k</v>
+      </c>
+      <c r="C22" t="str">
+        <v>建达软件</v>
+      </c>
+      <c r="D22" t="str">
+        <v>经开区</v>
+      </c>
+      <c r="E22" t="str" xml:space="preserve">
+        <v xml:space="preserve">10k-15k
+                        经验3-5年 / 本科</v>
+      </c>
+      <c r="F22" t="str" xml:space="preserve">
+        <v xml:space="preserve">10k-15k
+                        经验3-5年 / 本科</v>
+      </c>
+      <c r="G22" t="str">
+        <v>企业服务,软件开发 / 未融资 / 15-50人</v>
+      </c>
+    </row>
+    <row r="23" xml:space="preserve">
+      <c r="A23" t="str">
         <v>android开发工程师</v>
       </c>
-      <c r="B22" t="str">
+      <c r="B23" t="str">
         <v>5k-8k</v>
       </c>
-      <c r="C22" t="str">
+      <c r="C23" t="str">
         <v>东方蓝深</v>
       </c>
-      <c r="D22" t="str">
+      <c r="D23" t="str">
         <v>二七区</v>
       </c>
-      <c r="E22" t="str" xml:space="preserve">
+      <c r="E23" t="str" xml:space="preserve">
         <v xml:space="preserve">5k-8k
                         经验不限 / 本科</v>
       </c>
-      <c r="F22" t="str" xml:space="preserve">
+      <c r="F23" t="str" xml:space="preserve">
         <v xml:space="preserve">5k-8k
                         经验不限 / 本科</v>
       </c>
-      <c r="G22" t="str">
+      <c r="G23" t="str">
         <v>企业服务 / 不需要融资 / 50-150人</v>
-      </c>
-    </row>
-    <row r="23" xml:space="preserve">
-      <c r="A23" t="str">
-        <v>Android开发工程师</v>
-      </c>
-      <c r="B23" t="str">
-        <v>6k-9k</v>
-      </c>
-      <c r="C23" t="str">
-        <v>泽尚网络</v>
-      </c>
-      <c r="D23" t="str">
-        <v>中原区</v>
-      </c>
-      <c r="E23" t="str" xml:space="preserve">
-        <v xml:space="preserve">6k-9k
-                        经验3-5年 / 不限</v>
-      </c>
-      <c r="F23" t="str" xml:space="preserve">
-        <v xml:space="preserve">6k-9k
-                        经验3-5年 / 不限</v>
-      </c>
-      <c r="G23" t="str">
-        <v>移动互联网,教育 / 不需要融资 / 15-50人</v>
       </c>
     </row>
     <row r="24" xml:space="preserve">
@@ -1155,57 +1155,82 @@
     </row>
     <row r="32" xml:space="preserve">
       <c r="A32" t="str">
+        <v>Android开发工程师</v>
+      </c>
+      <c r="B32" t="str">
+        <v>6k-9k</v>
+      </c>
+      <c r="C32" t="str">
+        <v>泽尚网络</v>
+      </c>
+      <c r="D32" t="str">
+        <v>中原区</v>
+      </c>
+      <c r="E32" t="str" xml:space="preserve">
+        <v xml:space="preserve">6k-9k
+                        经验3-5年 / 不限</v>
+      </c>
+      <c r="F32" t="str" xml:space="preserve">
+        <v xml:space="preserve">6k-9k
+                        经验3-5年 / 不限</v>
+      </c>
+      <c r="G32" t="str">
+        <v>移动互联网,教育 / 不需要融资 / 15-50人</v>
+      </c>
+    </row>
+    <row r="33" xml:space="preserve">
+      <c r="A33" t="str">
         <v>安卓android开发工程师</v>
       </c>
-      <c r="B32" t="str">
+      <c r="B33" t="str">
         <v>10k-13k</v>
       </c>
-      <c r="C32" t="str">
+      <c r="C33" t="str">
         <v>木歌科技</v>
       </c>
-      <c r="D32" t="str">
+      <c r="D33" t="str">
         <v>管城回族区</v>
       </c>
-      <c r="E32" t="str" xml:space="preserve">
+      <c r="E33" t="str" xml:space="preserve">
         <v xml:space="preserve">10k-13k
                         经验3-5年 / 大专</v>
       </c>
-      <c r="F32" t="str" xml:space="preserve">
+      <c r="F33" t="str" xml:space="preserve">
         <v xml:space="preserve">10k-13k
                         经验3-5年 / 大专</v>
       </c>
-      <c r="G32" t="str">
+      <c r="G33" t="str">
         <v>社交,房产家居 / 天使轮 / 少于15人</v>
       </c>
     </row>
-    <row r="33" xml:space="preserve">
-      <c r="A33" t="str">
-        <v>Android实习工程师</v>
-      </c>
-      <c r="B33" t="str">
-        <v>4k-6k</v>
-      </c>
-      <c r="C33" t="str">
+    <row r="34" xml:space="preserve">
+      <c r="A34" t="str">
+        <v>高级android开发工程师</v>
+      </c>
+      <c r="B34" t="str">
+        <v>15k-25k</v>
+      </c>
+      <c r="C34" t="str">
         <v>小熊博望</v>
       </c>
-      <c r="D33" t="str">
+      <c r="D34" t="str">
         <v>金水区</v>
       </c>
-      <c r="E33" t="str" xml:space="preserve">
-        <v xml:space="preserve">4k-6k
-                        经验在校/应届 / 本科</v>
-      </c>
-      <c r="F33" t="str" xml:space="preserve">
-        <v xml:space="preserve">4k-6k
-                        经验在校/应届 / 本科</v>
-      </c>
-      <c r="G33" t="str">
+      <c r="E34" t="str" xml:space="preserve">
+        <v xml:space="preserve">15k-25k
+                        经验3-5年 / 本科</v>
+      </c>
+      <c r="F34" t="str" xml:space="preserve">
+        <v xml:space="preserve">15k-25k
+                        经验3-5年 / 本科</v>
+      </c>
+      <c r="G34" t="str">
         <v>IT技术服务｜咨询,工具类产品 / 不需要融资 / 150-500人</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G33"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G34"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/招聘求职信息-招聘网站-人才网-拉勾招聘.xlsx
+++ b/app/src/main/assets/招聘求职信息-招聘网站-人才网-拉勾招聘.xlsx
@@ -405,152 +405,152 @@
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" t="str">
-        <v>android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B2" t="str">
-        <v>12k-20k</v>
+        <v>6k-8k</v>
       </c>
       <c r="C2" t="str">
-        <v>琥珀创想</v>
+        <v>天派信息技术</v>
       </c>
       <c r="D2" t="str">
-        <v>金水区</v>
+        <v>高新区</v>
       </c>
       <c r="E2" t="str" xml:space="preserve">
-        <v xml:space="preserve">12k-20k
-                        经验3-5年 / 本科</v>
+        <v xml:space="preserve">6k-8k
+                        经验3-5年 / 不限</v>
       </c>
       <c r="F2" t="str" xml:space="preserve">
-        <v xml:space="preserve">12k-20k
-                        经验3-5年 / 本科</v>
+        <v xml:space="preserve">6k-8k
+                        经验3-5年 / 不限</v>
       </c>
       <c r="G2" t="str">
-        <v>工具类产品 / 不需要融资 / 50-150人</v>
+        <v>通讯电子,软件开发 / 未融资 / 15-50人</v>
       </c>
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B3" t="str">
+        <v>12k-20k</v>
+      </c>
+      <c r="C3" t="str">
+        <v>琥珀创想</v>
+      </c>
+      <c r="D3" t="str">
+        <v>金水区</v>
+      </c>
+      <c r="E3" t="str" xml:space="preserve">
+        <v xml:space="preserve">12k-20k
+                        经验3-5年 / 本科</v>
+      </c>
+      <c r="F3" t="str" xml:space="preserve">
+        <v xml:space="preserve">12k-20k
+                        经验3-5年 / 本科</v>
+      </c>
+      <c r="G3" t="str">
+        <v>工具类产品 / 不需要融资 / 50-150人</v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
+      <c r="A4" t="str">
+        <v>Android开发工程师</v>
+      </c>
+      <c r="B4" t="str">
+        <v>10k-15k</v>
+      </c>
+      <c r="C4" t="str">
+        <v>小熊博望</v>
+      </c>
+      <c r="D4" t="str">
+        <v>金水区</v>
+      </c>
+      <c r="E4" t="str" xml:space="preserve">
+        <v xml:space="preserve">10k-15k
+                        经验1-3年 / 本科</v>
+      </c>
+      <c r="F4" t="str" xml:space="preserve">
+        <v xml:space="preserve">10k-15k
+                        经验1-3年 / 本科</v>
+      </c>
+      <c r="G4" t="str">
+        <v>IT技术服务｜咨询,工具类产品 / 不需要融资 / 150-500人</v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
+      <c r="A5" t="str">
         <v>Android(安卓)软件开发工程师</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B5" t="str">
         <v>6k-8k</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C5" t="str">
         <v>华军融创</v>
       </c>
-      <c r="D3" t="str">
+      <c r="D5" t="str">
         <v>中原区</v>
       </c>
-      <c r="E3" t="str" xml:space="preserve">
+      <c r="E5" t="str" xml:space="preserve">
         <v xml:space="preserve">6k-8k
                         经验不限 / 本科</v>
       </c>
-      <c r="F3" t="str" xml:space="preserve">
+      <c r="F5" t="str" xml:space="preserve">
         <v xml:space="preserve">6k-8k
                         经验不限 / 本科</v>
       </c>
-      <c r="G3" t="str">
+      <c r="G5" t="str">
         <v>软件服务｜咨询,IT技术服务｜咨询 / 未融资 / 15-50人</v>
-      </c>
-    </row>
-    <row r="4" xml:space="preserve">
-      <c r="A4" t="str">
-        <v>Android实习工程师</v>
-      </c>
-      <c r="B4" t="str">
-        <v>4k-6k</v>
-      </c>
-      <c r="C4" t="str">
-        <v>小熊博望</v>
-      </c>
-      <c r="D4" t="str">
-        <v>金水区</v>
-      </c>
-      <c r="E4" t="str" xml:space="preserve">
-        <v xml:space="preserve">4k-6k
-                        经验在校/应届 / 本科</v>
-      </c>
-      <c r="F4" t="str" xml:space="preserve">
-        <v xml:space="preserve">4k-6k
-                        经验在校/应届 / 本科</v>
-      </c>
-      <c r="G4" t="str">
-        <v>IT技术服务｜咨询,工具类产品 / 不需要融资 / 150-500人</v>
-      </c>
-    </row>
-    <row r="5" xml:space="preserve">
-      <c r="A5" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B5" t="str">
-        <v>7k-10k</v>
-      </c>
-      <c r="C5" t="str">
-        <v>诺云科技</v>
-      </c>
-      <c r="D5" t="str">
-        <v>高新区</v>
-      </c>
-      <c r="E5" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-10k
-                        经验1-3年 / 本科</v>
-      </c>
-      <c r="F5" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-10k
-                        经验1-3年 / 本科</v>
-      </c>
-      <c r="G5" t="str">
-        <v>移动互联网 / 未融资 / 15-50人</v>
       </c>
     </row>
     <row r="6" xml:space="preserve">
       <c r="A6" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B6" t="str">
+        <v>7k-10k</v>
+      </c>
+      <c r="C6" t="str">
+        <v>诺云科技</v>
+      </c>
+      <c r="D6" t="str">
+        <v>高新区</v>
+      </c>
+      <c r="E6" t="str" xml:space="preserve">
+        <v xml:space="preserve">7k-10k
+                        经验1-3年 / 本科</v>
+      </c>
+      <c r="F6" t="str" xml:space="preserve">
+        <v xml:space="preserve">7k-10k
+                        经验1-3年 / 本科</v>
+      </c>
+      <c r="G6" t="str">
+        <v>移动互联网 / 未融资 / 15-50人</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
+      <c r="A7" t="str">
         <v>安卓程序员加班有加班费</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B7" t="str">
         <v>7k-12k</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C7" t="str">
         <v>领红网络</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D7" t="str">
         <v>北环</v>
       </c>
-      <c r="E6" t="str" xml:space="preserve">
+      <c r="E7" t="str" xml:space="preserve">
         <v xml:space="preserve">7k-12k
                         经验1-3年 / 不限</v>
       </c>
-      <c r="F6" t="str" xml:space="preserve">
+      <c r="F7" t="str" xml:space="preserve">
         <v xml:space="preserve">7k-12k
                         经验1-3年 / 不限</v>
       </c>
-      <c r="G6" t="str">
+      <c r="G7" t="str">
         <v>软件开发,区块链 / 未融资 / 15-50人</v>
-      </c>
-    </row>
-    <row r="7" xml:space="preserve">
-      <c r="A7" t="str">
-        <v>安卓开发工程师</v>
-      </c>
-      <c r="B7" t="str">
-        <v>6k-8k</v>
-      </c>
-      <c r="C7" t="str">
-        <v>天派信息技术</v>
-      </c>
-      <c r="D7" t="str">
-        <v>高新区</v>
-      </c>
-      <c r="E7" t="str" xml:space="preserve">
-        <v xml:space="preserve">6k-8k
-                        经验3-5年 / 不限</v>
-      </c>
-      <c r="F7" t="str" xml:space="preserve">
-        <v xml:space="preserve">6k-8k
-                        经验3-5年 / 不限</v>
-      </c>
-      <c r="G7" t="str">
-        <v>通讯电子,软件开发 / 未融资 / 15-50人</v>
       </c>
     </row>
     <row r="8" xml:space="preserve">
@@ -780,10 +780,10 @@
     </row>
     <row r="17" xml:space="preserve">
       <c r="A17" t="str">
-        <v>Android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>10k-15k</v>
+        <v>15k-25k</v>
       </c>
       <c r="C17" t="str">
         <v>小熊博望</v>
@@ -792,12 +792,12 @@
         <v>金水区</v>
       </c>
       <c r="E17" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-15k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">15k-25k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="F17" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-15k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">15k-25k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="G17" t="str">
         <v>IT技术服务｜咨询,工具类产品 / 不需要融资 / 150-500人</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="34" xml:space="preserve">
       <c r="A34" t="str">
-        <v>高级android开发工程师</v>
+        <v>Android实习工程师</v>
       </c>
       <c r="B34" t="str">
-        <v>15k-25k</v>
+        <v>4k-6k</v>
       </c>
       <c r="C34" t="str">
         <v>小熊博望</v>
@@ -1217,12 +1217,12 @@
         <v>金水区</v>
       </c>
       <c r="E34" t="str" xml:space="preserve">
-        <v xml:space="preserve">15k-25k
-                        经验3-5年 / 本科</v>
+        <v xml:space="preserve">4k-6k
+                        经验在校/应届 / 本科</v>
       </c>
       <c r="F34" t="str" xml:space="preserve">
-        <v xml:space="preserve">15k-25k
-                        经验3-5年 / 本科</v>
+        <v xml:space="preserve">4k-6k
+                        经验在校/应届 / 本科</v>
       </c>
       <c r="G34" t="str">
         <v>IT技术服务｜咨询,工具类产品 / 不需要融资 / 150-500人</v>

--- a/app/src/main/assets/招聘求职信息-招聘网站-人才网-拉勾招聘.xlsx
+++ b/app/src/main/assets/招聘求职信息-招聘网站-人才网-拉勾招聘.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,202 +405,202 @@
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" t="str">
-        <v>安卓开发工程师</v>
+        <v>Android(安卓)软件开发工程师</v>
       </c>
       <c r="B2" t="str">
         <v>6k-8k</v>
       </c>
       <c r="C2" t="str">
-        <v>天派信息技术</v>
+        <v>华军融创</v>
       </c>
       <c r="D2" t="str">
-        <v>高新区</v>
+        <v>中原区</v>
       </c>
       <c r="E2" t="str" xml:space="preserve">
         <v xml:space="preserve">6k-8k
-                        经验3-5年 / 不限</v>
+                        经验不限 / 本科</v>
       </c>
       <c r="F2" t="str" xml:space="preserve">
         <v xml:space="preserve">6k-8k
-                        经验3-5年 / 不限</v>
+                        经验不限 / 本科</v>
       </c>
       <c r="G2" t="str">
-        <v>通讯电子,软件开发 / 未融资 / 15-50人</v>
+        <v>软件服务｜咨询,IT技术服务｜咨询 / 未融资 / 15-50人</v>
       </c>
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" t="str">
-        <v>android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B3" t="str">
-        <v>12k-20k</v>
+        <v>10k-15k</v>
       </c>
       <c r="C3" t="str">
-        <v>琥珀创想</v>
+        <v>小熊博望</v>
       </c>
       <c r="D3" t="str">
         <v>金水区</v>
       </c>
       <c r="E3" t="str" xml:space="preserve">
-        <v xml:space="preserve">12k-20k
-                        经验3-5年 / 本科</v>
+        <v xml:space="preserve">10k-15k
+                        经验1-3年 / 本科</v>
       </c>
       <c r="F3" t="str" xml:space="preserve">
-        <v xml:space="preserve">12k-20k
-                        经验3-5年 / 本科</v>
+        <v xml:space="preserve">10k-15k
+                        经验1-3年 / 本科</v>
       </c>
       <c r="G3" t="str">
-        <v>工具类产品 / 不需要融资 / 50-150人</v>
+        <v>IT技术服务｜咨询,工具类产品 / 不需要融资 / 150-500人</v>
       </c>
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4" t="str">
-        <v>Android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B4" t="str">
-        <v>10k-15k</v>
+        <v>5k-10k</v>
       </c>
       <c r="C4" t="str">
-        <v>小熊博望</v>
+        <v>大河网</v>
       </c>
       <c r="D4" t="str">
-        <v>金水区</v>
+        <v>中原区</v>
       </c>
       <c r="E4" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-15k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">5k-10k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="F4" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-15k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">5k-10k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="G4" t="str">
-        <v>IT技术服务｜咨询,工具类产品 / 不需要融资 / 150-500人</v>
+        <v>内容资讯,内容社区 / 不需要融资 / 150-500人</v>
       </c>
     </row>
     <row r="5" xml:space="preserve">
       <c r="A5" t="str">
-        <v>Android(安卓)软件开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B5" t="str">
-        <v>6k-8k</v>
+        <v>7k-12k</v>
       </c>
       <c r="C5" t="str">
-        <v>华军融创</v>
+        <v>优量科技</v>
       </c>
       <c r="D5" t="str">
-        <v>中原区</v>
+        <v>淮河路</v>
       </c>
       <c r="E5" t="str" xml:space="preserve">
-        <v xml:space="preserve">6k-8k
-                        经验不限 / 本科</v>
+        <v xml:space="preserve">7k-12k
+                        经验1-3年 / 本科</v>
       </c>
       <c r="F5" t="str" xml:space="preserve">
-        <v xml:space="preserve">6k-8k
-                        经验不限 / 本科</v>
+        <v xml:space="preserve">7k-12k
+                        经验1-3年 / 本科</v>
       </c>
       <c r="G5" t="str">
-        <v>软件服务｜咨询,IT技术服务｜咨询 / 未融资 / 15-50人</v>
+        <v>软件开发 / 未融资 / 少于15人</v>
       </c>
     </row>
     <row r="6" xml:space="preserve">
       <c r="A6" t="str">
-        <v>android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B6" t="str">
-        <v>7k-10k</v>
+        <v>6k-8k</v>
       </c>
       <c r="C6" t="str">
-        <v>诺云科技</v>
+        <v>天派信息技术</v>
       </c>
       <c r="D6" t="str">
         <v>高新区</v>
       </c>
       <c r="E6" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-10k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">6k-8k
+                        经验3-5年 / 不限</v>
       </c>
       <c r="F6" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-10k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">6k-8k
+                        经验3-5年 / 不限</v>
       </c>
       <c r="G6" t="str">
-        <v>移动互联网 / 未融资 / 15-50人</v>
+        <v>通讯电子,软件开发 / 未融资 / 15-50人</v>
       </c>
     </row>
     <row r="7" xml:space="preserve">
       <c r="A7" t="str">
-        <v>安卓程序员加班有加班费</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>7k-12k</v>
+        <v>12k-20k</v>
       </c>
       <c r="C7" t="str">
-        <v>领红网络</v>
+        <v>琥珀创想</v>
       </c>
       <c r="D7" t="str">
-        <v>北环</v>
+        <v>金水区</v>
       </c>
       <c r="E7" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-12k
-                        经验1-3年 / 不限</v>
+        <v xml:space="preserve">12k-20k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="F7" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-12k
-                        经验1-3年 / 不限</v>
+        <v xml:space="preserve">12k-20k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="G7" t="str">
-        <v>软件开发,区块链 / 未融资 / 15-50人</v>
+        <v>工具类产品 / 不需要融资 / 50-150人</v>
       </c>
     </row>
     <row r="8" xml:space="preserve">
       <c r="A8" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B8" t="str">
+        <v>7k-10k</v>
+      </c>
+      <c r="C8" t="str">
+        <v>诺云科技</v>
+      </c>
+      <c r="D8" t="str">
+        <v>高新区</v>
+      </c>
+      <c r="E8" t="str" xml:space="preserve">
+        <v xml:space="preserve">7k-10k
+                        经验1-3年 / 本科</v>
+      </c>
+      <c r="F8" t="str" xml:space="preserve">
+        <v xml:space="preserve">7k-10k
+                        经验1-3年 / 本科</v>
+      </c>
+      <c r="G8" t="str">
+        <v>移动互联网 / 未融资 / 15-50人</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
+      <c r="A9" t="str">
         <v>安卓android开发工程师</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B9" t="str">
         <v>8k-12k</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C9" t="str">
         <v>匠库信息</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D9" t="str">
         <v>二七区</v>
       </c>
-      <c r="E8" t="str" xml:space="preserve">
+      <c r="E9" t="str" xml:space="preserve">
         <v xml:space="preserve">8k-12k
                         经验3-5年 / 不限</v>
       </c>
-      <c r="F8" t="str" xml:space="preserve">
+      <c r="F9" t="str" xml:space="preserve">
         <v xml:space="preserve">8k-12k
                         经验3-5年 / 不限</v>
       </c>
-      <c r="G8" t="str">
+      <c r="G9" t="str">
         <v>软件服务｜咨询,IT技术服务｜咨询 / 不需要融资 / 15-50人</v>
-      </c>
-    </row>
-    <row r="9" xml:space="preserve">
-      <c r="A9" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B9" t="str">
-        <v>7k-12k</v>
-      </c>
-      <c r="C9" t="str">
-        <v>优量科技</v>
-      </c>
-      <c r="D9" t="str">
-        <v>淮河路</v>
-      </c>
-      <c r="E9" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-12k
-                        经验1-3年 / 本科</v>
-      </c>
-      <c r="F9" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-12k
-                        经验1-3年 / 本科</v>
-      </c>
-      <c r="G9" t="str">
-        <v>软件开发 / 未融资 / 少于15人</v>
       </c>
     </row>
     <row r="10" xml:space="preserve">
@@ -780,10 +780,10 @@
     </row>
     <row r="17" xml:space="preserve">
       <c r="A17" t="str">
-        <v>高级android开发工程师</v>
+        <v>Android实习工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>15k-25k</v>
+        <v>4k-6k</v>
       </c>
       <c r="C17" t="str">
         <v>小熊博望</v>
@@ -792,12 +792,12 @@
         <v>金水区</v>
       </c>
       <c r="E17" t="str" xml:space="preserve">
-        <v xml:space="preserve">15k-25k
-                        经验3-5年 / 本科</v>
+        <v xml:space="preserve">4k-6k
+                        经验在校/应届 / 本科</v>
       </c>
       <c r="F17" t="str" xml:space="preserve">
-        <v xml:space="preserve">15k-25k
-                        经验3-5年 / 本科</v>
+        <v xml:space="preserve">4k-6k
+                        经验在校/应届 / 本科</v>
       </c>
       <c r="G17" t="str">
         <v>IT技术服务｜咨询,工具类产品 / 不需要融资 / 150-500人</v>
@@ -1105,27 +1105,27 @@
     </row>
     <row r="30" xml:space="preserve">
       <c r="A30" t="str">
-        <v>Android</v>
+        <v>安卓android开发工程师</v>
       </c>
       <c r="B30" t="str">
-        <v>5k-10k</v>
+        <v>7k-8k</v>
       </c>
       <c r="C30" t="str">
-        <v>大河网</v>
+        <v>小牛信息</v>
       </c>
       <c r="D30" t="str">
-        <v>中原区</v>
+        <v>管城回族区</v>
       </c>
       <c r="E30" t="str" xml:space="preserve">
-        <v xml:space="preserve">5k-10k
-                        经验3-5年 / 本科</v>
+        <v xml:space="preserve">7k-8k
+                        经验1-3年 / 本科</v>
       </c>
       <c r="F30" t="str" xml:space="preserve">
-        <v xml:space="preserve">5k-10k
-                        经验3-5年 / 本科</v>
+        <v xml:space="preserve">7k-8k
+                        经验1-3年 / 本科</v>
       </c>
       <c r="G30" t="str">
-        <v>内容资讯,内容社区 / 不需要融资 / 150-500人</v>
+        <v>软件开发 / 未融资 / 15-50人</v>
       </c>
     </row>
     <row r="31" xml:space="preserve">
@@ -1133,24 +1133,24 @@
         <v>安卓android开发工程师</v>
       </c>
       <c r="B31" t="str">
-        <v>7k-8k</v>
+        <v>10k-13k</v>
       </c>
       <c r="C31" t="str">
-        <v>小牛信息</v>
+        <v>木歌科技</v>
       </c>
       <c r="D31" t="str">
         <v>管城回族区</v>
       </c>
       <c r="E31" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-8k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">10k-13k
+                        经验3-5年 / 大专</v>
       </c>
       <c r="F31" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-8k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">10k-13k
+                        经验3-5年 / 大专</v>
       </c>
       <c r="G31" t="str">
-        <v>软件开发 / 未融资 / 15-50人</v>
+        <v>社交,房产家居 / 天使轮 / 少于15人</v>
       </c>
     </row>
     <row r="32" xml:space="preserve">
@@ -1180,57 +1180,32 @@
     </row>
     <row r="33" xml:space="preserve">
       <c r="A33" t="str">
-        <v>安卓android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B33" t="str">
-        <v>10k-13k</v>
+        <v>15k-25k</v>
       </c>
       <c r="C33" t="str">
-        <v>木歌科技</v>
+        <v>小熊博望</v>
       </c>
       <c r="D33" t="str">
-        <v>管城回族区</v>
+        <v>金水区</v>
       </c>
       <c r="E33" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-13k
-                        经验3-5年 / 大专</v>
+        <v xml:space="preserve">15k-25k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="F33" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-13k
-                        经验3-5年 / 大专</v>
+        <v xml:space="preserve">15k-25k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="G33" t="str">
-        <v>社交,房产家居 / 天使轮 / 少于15人</v>
-      </c>
-    </row>
-    <row r="34" xml:space="preserve">
-      <c r="A34" t="str">
-        <v>Android实习工程师</v>
-      </c>
-      <c r="B34" t="str">
-        <v>4k-6k</v>
-      </c>
-      <c r="C34" t="str">
-        <v>小熊博望</v>
-      </c>
-      <c r="D34" t="str">
-        <v>金水区</v>
-      </c>
-      <c r="E34" t="str" xml:space="preserve">
-        <v xml:space="preserve">4k-6k
-                        经验在校/应届 / 本科</v>
-      </c>
-      <c r="F34" t="str" xml:space="preserve">
-        <v xml:space="preserve">4k-6k
-                        经验在校/应届 / 本科</v>
-      </c>
-      <c r="G34" t="str">
         <v>IT技术服务｜咨询,工具类产品 / 不需要融资 / 150-500人</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G34"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G33"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/招聘求职信息-招聘网站-人才网-拉勾招聘.xlsx
+++ b/app/src/main/assets/招聘求职信息-招聘网站-人才网-拉勾招聘.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,91 +405,91 @@
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" t="str">
+        <v>Android开发工程师</v>
+      </c>
+      <c r="B2" t="str">
+        <v>10k-15k</v>
+      </c>
+      <c r="C2" t="str">
+        <v>小熊博望</v>
+      </c>
+      <c r="D2" t="str">
+        <v>金水区</v>
+      </c>
+      <c r="E2" t="str" xml:space="preserve">
+        <v xml:space="preserve">10k-15k
+                        经验1-3年 / 本科</v>
+      </c>
+      <c r="F2" t="str" xml:space="preserve">
+        <v xml:space="preserve">10k-15k
+                        经验1-3年 / 本科</v>
+      </c>
+      <c r="G2" t="str">
+        <v>IT技术服务｜咨询,工具类产品 / 不需要融资 / 150-500人</v>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
+      <c r="A3" t="str">
         <v>Android(安卓)软件开发工程师</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B3" t="str">
         <v>6k-8k</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C3" t="str">
         <v>华军融创</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D3" t="str">
         <v>中原区</v>
       </c>
-      <c r="E2" t="str" xml:space="preserve">
+      <c r="E3" t="str" xml:space="preserve">
         <v xml:space="preserve">6k-8k
                         经验不限 / 本科</v>
       </c>
-      <c r="F2" t="str" xml:space="preserve">
+      <c r="F3" t="str" xml:space="preserve">
         <v xml:space="preserve">6k-8k
                         经验不限 / 本科</v>
       </c>
-      <c r="G2" t="str">
+      <c r="G3" t="str">
         <v>软件服务｜咨询,IT技术服务｜咨询 / 未融资 / 15-50人</v>
-      </c>
-    </row>
-    <row r="3" xml:space="preserve">
-      <c r="A3" t="str">
-        <v>Android开发工程师</v>
-      </c>
-      <c r="B3" t="str">
-        <v>10k-15k</v>
-      </c>
-      <c r="C3" t="str">
-        <v>小熊博望</v>
-      </c>
-      <c r="D3" t="str">
-        <v>金水区</v>
-      </c>
-      <c r="E3" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-15k
-                        经验1-3年 / 本科</v>
-      </c>
-      <c r="F3" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-15k
-                        经验1-3年 / 本科</v>
-      </c>
-      <c r="G3" t="str">
-        <v>IT技术服务｜咨询,工具类产品 / 不需要融资 / 150-500人</v>
       </c>
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4" t="str">
-        <v>Android</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B4" t="str">
-        <v>5k-10k</v>
+        <v>12k-20k</v>
       </c>
       <c r="C4" t="str">
-        <v>大河网</v>
+        <v>琥珀创想</v>
       </c>
       <c r="D4" t="str">
-        <v>中原区</v>
+        <v>金水区</v>
       </c>
       <c r="E4" t="str" xml:space="preserve">
-        <v xml:space="preserve">5k-10k
+        <v xml:space="preserve">12k-20k
                         经验3-5年 / 本科</v>
       </c>
       <c r="F4" t="str" xml:space="preserve">
-        <v xml:space="preserve">5k-10k
+        <v xml:space="preserve">12k-20k
                         经验3-5年 / 本科</v>
       </c>
       <c r="G4" t="str">
-        <v>内容资讯,内容社区 / 不需要融资 / 150-500人</v>
+        <v>工具类产品 / 不需要融资 / 50-150人</v>
       </c>
     </row>
     <row r="5" xml:space="preserve">
       <c r="A5" t="str">
-        <v>android开发工程师</v>
+        <v>安卓android开发工程师</v>
       </c>
       <c r="B5" t="str">
         <v>7k-12k</v>
       </c>
       <c r="C5" t="str">
-        <v>优量科技</v>
+        <v>天牛大数据</v>
       </c>
       <c r="D5" t="str">
-        <v>淮河路</v>
+        <v>高新区</v>
       </c>
       <c r="E5" t="str" xml:space="preserve">
         <v xml:space="preserve">7k-12k
@@ -500,7 +500,7 @@
                         经验1-3年 / 本科</v>
       </c>
       <c r="G5" t="str">
-        <v>软件开发 / 未融资 / 少于15人</v>
+        <v>其他 / 未融资 / 15-50人</v>
       </c>
     </row>
     <row r="6" xml:space="preserve">
@@ -508,49 +508,49 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B6" t="str">
-        <v>6k-8k</v>
+        <v>10k-13k</v>
       </c>
       <c r="C6" t="str">
-        <v>天派信息技术</v>
+        <v>飞渡科技</v>
       </c>
       <c r="D6" t="str">
-        <v>高新区</v>
+        <v>金水区</v>
       </c>
       <c r="E6" t="str" xml:space="preserve">
-        <v xml:space="preserve">6k-8k
-                        经验3-5年 / 不限</v>
+        <v xml:space="preserve">10k-13k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="F6" t="str" xml:space="preserve">
-        <v xml:space="preserve">6k-8k
-                        经验3-5年 / 不限</v>
+        <v xml:space="preserve">10k-13k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="G6" t="str">
-        <v>通讯电子,软件开发 / 未融资 / 15-50人</v>
+        <v>IT技术服务｜咨询 / 天使轮 / 15-50人</v>
       </c>
     </row>
     <row r="7" xml:space="preserve">
       <c r="A7" t="str">
-        <v>android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B7" t="str">
-        <v>12k-20k</v>
+        <v>5k-10k</v>
       </c>
       <c r="C7" t="str">
-        <v>琥珀创想</v>
+        <v>大河网</v>
       </c>
       <c r="D7" t="str">
-        <v>金水区</v>
+        <v>中原区</v>
       </c>
       <c r="E7" t="str" xml:space="preserve">
-        <v xml:space="preserve">12k-20k
+        <v xml:space="preserve">5k-10k
                         经验3-5年 / 本科</v>
       </c>
       <c r="F7" t="str" xml:space="preserve">
-        <v xml:space="preserve">12k-20k
+        <v xml:space="preserve">5k-10k
                         经验3-5年 / 本科</v>
       </c>
       <c r="G7" t="str">
-        <v>工具类产品 / 不需要融资 / 50-150人</v>
+        <v>内容资讯,内容社区 / 不需要融资 / 150-500人</v>
       </c>
     </row>
     <row r="8" xml:space="preserve">
@@ -558,224 +558,224 @@
         <v>android开发工程师</v>
       </c>
       <c r="B8" t="str">
-        <v>7k-10k</v>
+        <v>5k-10k</v>
       </c>
       <c r="C8" t="str">
-        <v>诺云科技</v>
+        <v>优量科技</v>
       </c>
       <c r="D8" t="str">
-        <v>高新区</v>
+        <v>淮河路</v>
       </c>
       <c r="E8" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-10k
+        <v xml:space="preserve">5k-10k
                         经验1-3年 / 本科</v>
       </c>
       <c r="F8" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-10k
+        <v xml:space="preserve">5k-10k
                         经验1-3年 / 本科</v>
       </c>
       <c r="G8" t="str">
-        <v>移动互联网 / 未融资 / 15-50人</v>
+        <v>软件开发 / 未融资 / 少于15人</v>
       </c>
     </row>
     <row r="9" xml:space="preserve">
       <c r="A9" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B9" t="str">
+        <v>6k-8k</v>
+      </c>
+      <c r="C9" t="str">
+        <v>天派信息技术</v>
+      </c>
+      <c r="D9" t="str">
+        <v>高新区</v>
+      </c>
+      <c r="E9" t="str" xml:space="preserve">
+        <v xml:space="preserve">6k-8k
+                        经验3-5年 / 不限</v>
+      </c>
+      <c r="F9" t="str" xml:space="preserve">
+        <v xml:space="preserve">6k-8k
+                        经验3-5年 / 不限</v>
+      </c>
+      <c r="G9" t="str">
+        <v>通讯电子,软件开发 / 未融资 / 15-50人</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
+      <c r="A10" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B10" t="str">
+        <v>7k-10k</v>
+      </c>
+      <c r="C10" t="str">
+        <v>诺云科技</v>
+      </c>
+      <c r="D10" t="str">
+        <v>高新区</v>
+      </c>
+      <c r="E10" t="str" xml:space="preserve">
+        <v xml:space="preserve">7k-10k
+                        经验1-3年 / 本科</v>
+      </c>
+      <c r="F10" t="str" xml:space="preserve">
+        <v xml:space="preserve">7k-10k
+                        经验1-3年 / 本科</v>
+      </c>
+      <c r="G10" t="str">
+        <v>移动互联网 / 未融资 / 15-50人</v>
+      </c>
+    </row>
+    <row r="11" xml:space="preserve">
+      <c r="A11" t="str">
         <v>安卓android开发工程师</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B11" t="str">
         <v>8k-12k</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C11" t="str">
         <v>匠库信息</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D11" t="str">
         <v>二七区</v>
       </c>
-      <c r="E9" t="str" xml:space="preserve">
+      <c r="E11" t="str" xml:space="preserve">
         <v xml:space="preserve">8k-12k
                         经验3-5年 / 不限</v>
       </c>
-      <c r="F9" t="str" xml:space="preserve">
+      <c r="F11" t="str" xml:space="preserve">
         <v xml:space="preserve">8k-12k
                         经验3-5年 / 不限</v>
       </c>
-      <c r="G9" t="str">
+      <c r="G11" t="str">
         <v>软件服务｜咨询,IT技术服务｜咨询 / 不需要融资 / 15-50人</v>
       </c>
     </row>
-    <row r="10" xml:space="preserve">
-      <c r="A10" t="str">
+    <row r="12" xml:space="preserve">
+      <c r="A12" t="str">
         <v>Android</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B12" t="str">
         <v>15k-30k</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C12" t="str">
         <v>卓见软件</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D12" t="str">
         <v>经二路</v>
       </c>
-      <c r="E10" t="str" xml:space="preserve">
+      <c r="E12" t="str" xml:space="preserve">
         <v xml:space="preserve">15k-30k
                         经验5-10年 / 本科</v>
       </c>
-      <c r="F10" t="str" xml:space="preserve">
+      <c r="F12" t="str" xml:space="preserve">
         <v xml:space="preserve">15k-30k
                         经验5-10年 / 本科</v>
       </c>
-      <c r="G10" t="str">
+      <c r="G12" t="str">
         <v>移动互联网 / 不需要融资 / 50-150人</v>
       </c>
     </row>
-    <row r="11" xml:space="preserve">
-      <c r="A11" t="str">
+    <row r="13" xml:space="preserve">
+      <c r="A13" t="str">
         <v>android开发工程师</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B13" t="str">
         <v>15k-20k</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C13" t="str">
         <v>萨摩耶数科</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D13" t="str">
         <v>管城区</v>
       </c>
-      <c r="E11" t="str" xml:space="preserve">
+      <c r="E13" t="str" xml:space="preserve">
         <v xml:space="preserve">15k-20k
                         经验5-10年 / 本科</v>
       </c>
-      <c r="F11" t="str" xml:space="preserve">
+      <c r="F13" t="str" xml:space="preserve">
         <v xml:space="preserve">15k-20k
                         经验5-10年 / 本科</v>
       </c>
-      <c r="G11" t="str">
+      <c r="G13" t="str">
         <v>科技金融 / C轮 / 150-500人</v>
       </c>
     </row>
-    <row r="12" xml:space="preserve">
-      <c r="A12" t="str">
+    <row r="14" xml:space="preserve">
+      <c r="A14" t="str">
         <v>android开发工程师</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B14" t="str">
         <v>6k-9k</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C14" t="str">
         <v>品辰电子</v>
       </c>
-      <c r="D12" t="str">
+      <c r="D14" t="str">
         <v>高新区</v>
       </c>
-      <c r="E12" t="str" xml:space="preserve">
+      <c r="E14" t="str" xml:space="preserve">
         <v xml:space="preserve">6k-9k
                         经验1-3年 / 本科</v>
       </c>
-      <c r="F12" t="str" xml:space="preserve">
+      <c r="F14" t="str" xml:space="preserve">
         <v xml:space="preserve">6k-9k
                         经验1-3年 / 本科</v>
       </c>
-      <c r="G12" t="str">
+      <c r="G14" t="str">
         <v>医疗丨健康,数据服务 / 未融资 / 50-150人</v>
       </c>
     </row>
-    <row r="13" xml:space="preserve">
-      <c r="A13" t="str">
+    <row r="15" xml:space="preserve">
+      <c r="A15" t="str">
         <v>Android开发工程师</v>
       </c>
-      <c r="B13" t="str">
+      <c r="B15" t="str">
         <v>5k-8k</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C15" t="str">
         <v>启邦网络</v>
       </c>
-      <c r="D13" t="str">
+      <c r="D15" t="str">
         <v>无</v>
       </c>
-      <c r="E13" t="str" xml:space="preserve">
+      <c r="E15" t="str" xml:space="preserve">
         <v xml:space="preserve">5k-8k
                         经验不限 / 不限</v>
       </c>
-      <c r="F13" t="str" xml:space="preserve">
+      <c r="F15" t="str" xml:space="preserve">
         <v xml:space="preserve">5k-8k
                         经验不限 / 不限</v>
       </c>
-      <c r="G13" t="str">
+      <c r="G15" t="str">
         <v>物联网、软件开发 / 未融资 / 少于15人</v>
       </c>
     </row>
-    <row r="14" xml:space="preserve">
-      <c r="A14" t="str">
+    <row r="16" xml:space="preserve">
+      <c r="A16" t="str">
         <v>Android开发工程师</v>
       </c>
-      <c r="B14" t="str">
+      <c r="B16" t="str">
         <v>5k-8k</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C16" t="str">
         <v>华元嘉信集团</v>
       </c>
-      <c r="D14" t="str">
+      <c r="D16" t="str">
         <v>二七万达</v>
       </c>
-      <c r="E14" t="str" xml:space="preserve">
+      <c r="E16" t="str" xml:space="preserve">
         <v xml:space="preserve">5k-8k
                         经验1-3年 / 大专</v>
       </c>
-      <c r="F14" t="str" xml:space="preserve">
+      <c r="F16" t="str" xml:space="preserve">
         <v xml:space="preserve">5k-8k
                         经验1-3年 / 大专</v>
       </c>
-      <c r="G14" t="str">
+      <c r="G16" t="str">
         <v>贸易｜进出口,智能硬件 / 未融资 / 50-150人</v>
-      </c>
-    </row>
-    <row r="15" xml:space="preserve">
-      <c r="A15" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B15" t="str">
-        <v>8k-10k</v>
-      </c>
-      <c r="C15" t="str">
-        <v>中原通大数据服务</v>
-      </c>
-      <c r="D15" t="str">
-        <v>金水区</v>
-      </c>
-      <c r="E15" t="str" xml:space="preserve">
-        <v xml:space="preserve">8k-10k
-                        经验不限 / 本科</v>
-      </c>
-      <c r="F15" t="str" xml:space="preserve">
-        <v xml:space="preserve">8k-10k
-                        经验不限 / 本科</v>
-      </c>
-      <c r="G15" t="str">
-        <v>人工智能,软件开发 / 不需要融资 / 500-2000人</v>
-      </c>
-    </row>
-    <row r="16" xml:space="preserve">
-      <c r="A16" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B16" t="str">
-        <v>7k-10k</v>
-      </c>
-      <c r="C16" t="str">
-        <v>每天农资</v>
-      </c>
-      <c r="D16" t="str">
-        <v>金水区</v>
-      </c>
-      <c r="E16" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-10k
-                        经验1-3年 / 本科</v>
-      </c>
-      <c r="F16" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-10k
-                        经验1-3年 / 本科</v>
-      </c>
-      <c r="G16" t="str">
-        <v>电商,其他 / 未融资 / 15-50人</v>
       </c>
     </row>
     <row r="17" xml:space="preserve">
@@ -805,102 +805,102 @@
     </row>
     <row r="18" xml:space="preserve">
       <c r="A18" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B18" t="str">
+        <v>8k-10k</v>
+      </c>
+      <c r="C18" t="str">
+        <v>中原通大数据服务</v>
+      </c>
+      <c r="D18" t="str">
+        <v>金水区</v>
+      </c>
+      <c r="E18" t="str" xml:space="preserve">
+        <v xml:space="preserve">8k-10k
+                        经验不限 / 本科</v>
+      </c>
+      <c r="F18" t="str" xml:space="preserve">
+        <v xml:space="preserve">8k-10k
+                        经验不限 / 本科</v>
+      </c>
+      <c r="G18" t="str">
+        <v>人工智能,软件开发 / 不需要融资 / 500-2000人</v>
+      </c>
+    </row>
+    <row r="19" xml:space="preserve">
+      <c r="A19" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B19" t="str">
+        <v>7k-10k</v>
+      </c>
+      <c r="C19" t="str">
+        <v>每天农资</v>
+      </c>
+      <c r="D19" t="str">
+        <v>金水区</v>
+      </c>
+      <c r="E19" t="str" xml:space="preserve">
+        <v xml:space="preserve">7k-10k
+                        经验1-3年 / 本科</v>
+      </c>
+      <c r="F19" t="str" xml:space="preserve">
+        <v xml:space="preserve">7k-10k
+                        经验1-3年 / 本科</v>
+      </c>
+      <c r="G19" t="str">
+        <v>电商,其他 / 未融资 / 15-50人</v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
+      <c r="A20" t="str">
         <v>Android开发工程师</v>
       </c>
-      <c r="B18" t="str">
+      <c r="B20" t="str">
         <v>6k-10k</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C20" t="str">
         <v>泽尚网络</v>
       </c>
-      <c r="D18" t="str">
+      <c r="D20" t="str">
         <v>高新区</v>
       </c>
-      <c r="E18" t="str" xml:space="preserve">
+      <c r="E20" t="str" xml:space="preserve">
         <v xml:space="preserve">6k-10k
                         经验不限 / 不限</v>
       </c>
-      <c r="F18" t="str" xml:space="preserve">
+      <c r="F20" t="str" xml:space="preserve">
         <v xml:space="preserve">6k-10k
                         经验不限 / 不限</v>
       </c>
-      <c r="G18" t="str">
+      <c r="G20" t="str">
         <v>移动互联网,教育 / 不需要融资 / 15-50人</v>
-      </c>
-    </row>
-    <row r="19" xml:space="preserve">
-      <c r="A19" t="str">
-        <v>高级android开发工程师</v>
-      </c>
-      <c r="B19" t="str">
-        <v>10k-15k</v>
-      </c>
-      <c r="C19" t="str">
-        <v>郑州艾影像文化传播有限公司</v>
-      </c>
-      <c r="D19" t="str">
-        <v>北环路</v>
-      </c>
-      <c r="E19" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-15k
-                        经验3-5年 / 本科</v>
-      </c>
-      <c r="F19" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-15k
-                        经验3-5年 / 本科</v>
-      </c>
-      <c r="G19" t="str">
-        <v>消费生活,电商 / 不需要融资 / 50-150人</v>
-      </c>
-    </row>
-    <row r="20" xml:space="preserve">
-      <c r="A20" t="str">
-        <v>安卓开发工程师</v>
-      </c>
-      <c r="B20" t="str">
-        <v>7k-11k</v>
-      </c>
-      <c r="C20" t="str">
-        <v>新捷睿智能装备（苏州）股份有限公司</v>
-      </c>
-      <c r="D20" t="str">
-        <v>经开区</v>
-      </c>
-      <c r="E20" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-11k
-                        经验3-5年 / 大专</v>
-      </c>
-      <c r="F20" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-11k
-                        经验3-5年 / 大专</v>
-      </c>
-      <c r="G20" t="str">
-        <v>软件开发,物联网 / 不需要融资 / 15-50人</v>
       </c>
     </row>
     <row r="21" xml:space="preserve">
       <c r="A21" t="str">
-        <v>安卓开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>8k-10k</v>
+        <v>10k-15k</v>
       </c>
       <c r="C21" t="str">
-        <v>飞渡科技</v>
+        <v>郑州艾影像文化传播有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑东新区</v>
+        <v>北环路</v>
       </c>
       <c r="E21" t="str" xml:space="preserve">
-        <v xml:space="preserve">8k-10k
-                        经验3-5年 / 大专</v>
+        <v xml:space="preserve">10k-15k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="F21" t="str" xml:space="preserve">
-        <v xml:space="preserve">8k-10k
-                        经验3-5年 / 大专</v>
+        <v xml:space="preserve">10k-15k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="G21" t="str">
-        <v>金融,工具 / 不需要融资 / 15-50人</v>
+        <v>消费生活,电商 / 不需要融资 / 50-150人</v>
       </c>
     </row>
     <row r="22" xml:space="preserve">
@@ -908,224 +908,224 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B22" t="str">
-        <v>10k-15k</v>
+        <v>8k-10k</v>
       </c>
       <c r="C22" t="str">
-        <v>建达软件</v>
+        <v>飞渡科技</v>
       </c>
       <c r="D22" t="str">
-        <v>经开区</v>
+        <v>郑东新区</v>
       </c>
       <c r="E22" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-15k
-                        经验3-5年 / 本科</v>
+        <v xml:space="preserve">8k-10k
+                        经验3-5年 / 大专</v>
       </c>
       <c r="F22" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-15k
-                        经验3-5年 / 本科</v>
+        <v xml:space="preserve">8k-10k
+                        经验3-5年 / 大专</v>
       </c>
       <c r="G22" t="str">
-        <v>企业服务,软件开发 / 未融资 / 15-50人</v>
+        <v>金融,工具 / 不需要融资 / 15-50人</v>
       </c>
     </row>
     <row r="23" xml:space="preserve">
       <c r="A23" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B23" t="str">
+        <v>10k-15k</v>
+      </c>
+      <c r="C23" t="str">
+        <v>建达软件</v>
+      </c>
+      <c r="D23" t="str">
+        <v>经开区</v>
+      </c>
+      <c r="E23" t="str" xml:space="preserve">
+        <v xml:space="preserve">10k-15k
+                        经验3-5年 / 本科</v>
+      </c>
+      <c r="F23" t="str" xml:space="preserve">
+        <v xml:space="preserve">10k-15k
+                        经验3-5年 / 本科</v>
+      </c>
+      <c r="G23" t="str">
+        <v>企业服务,软件开发 / 未融资 / 15-50人</v>
+      </c>
+    </row>
+    <row r="24" xml:space="preserve">
+      <c r="A24" t="str">
         <v>android开发工程师</v>
       </c>
-      <c r="B23" t="str">
+      <c r="B24" t="str">
         <v>5k-8k</v>
       </c>
-      <c r="C23" t="str">
+      <c r="C24" t="str">
         <v>东方蓝深</v>
       </c>
-      <c r="D23" t="str">
+      <c r="D24" t="str">
         <v>二七区</v>
       </c>
-      <c r="E23" t="str" xml:space="preserve">
+      <c r="E24" t="str" xml:space="preserve">
         <v xml:space="preserve">5k-8k
                         经验不限 / 本科</v>
       </c>
-      <c r="F23" t="str" xml:space="preserve">
+      <c r="F24" t="str" xml:space="preserve">
         <v xml:space="preserve">5k-8k
                         经验不限 / 本科</v>
       </c>
-      <c r="G23" t="str">
+      <c r="G24" t="str">
         <v>企业服务 / 不需要融资 / 50-150人</v>
-      </c>
-    </row>
-    <row r="24" xml:space="preserve">
-      <c r="A24" t="str">
-        <v>安卓开发工程师</v>
-      </c>
-      <c r="B24" t="str">
-        <v>8k-10k</v>
-      </c>
-      <c r="C24" t="str">
-        <v>咿啦看书</v>
-      </c>
-      <c r="D24" t="str">
-        <v>金水区</v>
-      </c>
-      <c r="E24" t="str" xml:space="preserve">
-        <v xml:space="preserve">8k-10k
-                        经验3-5年 / 本科</v>
-      </c>
-      <c r="F24" t="str" xml:space="preserve">
-        <v xml:space="preserve">8k-10k
-                        经验3-5年 / 本科</v>
-      </c>
-      <c r="G24" t="str">
-        <v>工具类产品,软件服务｜咨询 / A轮 / 150-500人</v>
       </c>
     </row>
     <row r="25" xml:space="preserve">
       <c r="A25" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B25" t="str">
+        <v>8k-10k</v>
+      </c>
+      <c r="C25" t="str">
+        <v>咿啦看书</v>
+      </c>
+      <c r="D25" t="str">
+        <v>金水区</v>
+      </c>
+      <c r="E25" t="str" xml:space="preserve">
+        <v xml:space="preserve">8k-10k
+                        经验3-5年 / 本科</v>
+      </c>
+      <c r="F25" t="str" xml:space="preserve">
+        <v xml:space="preserve">8k-10k
+                        经验3-5年 / 本科</v>
+      </c>
+      <c r="G25" t="str">
+        <v>工具类产品,软件服务｜咨询 / A轮 / 150-500人</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
+      <c r="A26" t="str">
         <v>Android前端工程师</v>
       </c>
-      <c r="B25" t="str">
+      <c r="B26" t="str">
         <v>9k-15k</v>
       </c>
-      <c r="C25" t="str">
+      <c r="C26" t="str">
         <v>春永软件</v>
       </c>
-      <c r="D25" t="str">
+      <c r="D26" t="str">
         <v>郑东新区</v>
       </c>
-      <c r="E25" t="str" xml:space="preserve">
+      <c r="E26" t="str" xml:space="preserve">
         <v xml:space="preserve">9k-15k
                         经验3-5年 / 大专</v>
       </c>
-      <c r="F25" t="str" xml:space="preserve">
+      <c r="F26" t="str" xml:space="preserve">
         <v xml:space="preserve">9k-15k
                         经验3-5年 / 大专</v>
       </c>
-      <c r="G25" t="str">
+      <c r="G26" t="str">
         <v>MCN｜直播平台 / 不需要融资 / 15-50人</v>
-      </c>
-    </row>
-    <row r="26" xml:space="preserve">
-      <c r="A26" t="str">
-        <v>移动端开发（Android）</v>
-      </c>
-      <c r="B26" t="str">
-        <v>6k-8k</v>
-      </c>
-      <c r="C26" t="str">
-        <v>豪弘电子商务集团有限公司</v>
-      </c>
-      <c r="D26" t="str">
-        <v>郑东新区</v>
-      </c>
-      <c r="E26" t="str" xml:space="preserve">
-        <v xml:space="preserve">6k-8k
-                        经验1-3年 / 本科</v>
-      </c>
-      <c r="F26" t="str" xml:space="preserve">
-        <v xml:space="preserve">6k-8k
-                        经验1-3年 / 本科</v>
-      </c>
-      <c r="G26" t="str">
-        <v>金融,其他 / 上市公司 / 150-500人</v>
       </c>
     </row>
     <row r="27" xml:space="preserve">
       <c r="A27" t="str">
+        <v>移动端开发（Android）</v>
+      </c>
+      <c r="B27" t="str">
+        <v>6k-8k</v>
+      </c>
+      <c r="C27" t="str">
+        <v>豪弘电子商务集团有限公司</v>
+      </c>
+      <c r="D27" t="str">
+        <v>郑东新区</v>
+      </c>
+      <c r="E27" t="str" xml:space="preserve">
+        <v xml:space="preserve">6k-8k
+                        经验1-3年 / 本科</v>
+      </c>
+      <c r="F27" t="str" xml:space="preserve">
+        <v xml:space="preserve">6k-8k
+                        经验1-3年 / 本科</v>
+      </c>
+      <c r="G27" t="str">
+        <v>金融,其他 / 上市公司 / 150-500人</v>
+      </c>
+    </row>
+    <row r="28" xml:space="preserve">
+      <c r="A28" t="str">
         <v>安卓android开发工程师</v>
       </c>
-      <c r="B27" t="str">
+      <c r="B28" t="str">
         <v>8k-12k</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C28" t="str">
         <v>八角信息</v>
       </c>
-      <c r="D27" t="str">
+      <c r="D28" t="str">
         <v>管城回族区</v>
       </c>
-      <c r="E27" t="str" xml:space="preserve">
+      <c r="E28" t="str" xml:space="preserve">
         <v xml:space="preserve">8k-12k
                         经验3-5年 / 大专</v>
       </c>
-      <c r="F27" t="str" xml:space="preserve">
+      <c r="F28" t="str" xml:space="preserve">
         <v xml:space="preserve">8k-12k
                         经验3-5年 / 大专</v>
       </c>
-      <c r="G27" t="str">
+      <c r="G28" t="str">
         <v>移动互联网 / 未融资 / 15-50人</v>
       </c>
     </row>
-    <row r="28" xml:space="preserve">
-      <c r="A28" t="str">
+    <row r="29" xml:space="preserve">
+      <c r="A29" t="str">
         <v>android开发工程师</v>
       </c>
-      <c r="B28" t="str">
+      <c r="B29" t="str">
         <v>1k-2k</v>
       </c>
-      <c r="C28" t="str">
+      <c r="C29" t="str">
         <v>秀企科技</v>
       </c>
-      <c r="D28" t="str">
+      <c r="D29" t="str">
         <v>中原区</v>
       </c>
-      <c r="E28" t="str" xml:space="preserve">
+      <c r="E29" t="str" xml:space="preserve">
         <v xml:space="preserve">1k-2k
                         经验不限 / 不限</v>
       </c>
-      <c r="F28" t="str" xml:space="preserve">
+      <c r="F29" t="str" xml:space="preserve">
         <v xml:space="preserve">1k-2k
                         经验不限 / 不限</v>
       </c>
-      <c r="G28" t="str">
+      <c r="G29" t="str">
         <v>企业服务 / 未融资 / 15-50人</v>
-      </c>
-    </row>
-    <row r="29" xml:space="preserve">
-      <c r="A29" t="str">
-        <v>Android开发工程师</v>
-      </c>
-      <c r="B29" t="str">
-        <v>8k-10k</v>
-      </c>
-      <c r="C29" t="str">
-        <v>中康荣华</v>
-      </c>
-      <c r="D29" t="str">
-        <v>管城回族区</v>
-      </c>
-      <c r="E29" t="str" xml:space="preserve">
-        <v xml:space="preserve">8k-10k
-                        经验3-5年 / 本科</v>
-      </c>
-      <c r="F29" t="str" xml:space="preserve">
-        <v xml:space="preserve">8k-10k
-                        经验3-5年 / 本科</v>
-      </c>
-      <c r="G29" t="str">
-        <v>软件服务｜咨询,生活服务 / 未融资 / 15-50人</v>
       </c>
     </row>
     <row r="30" xml:space="preserve">
       <c r="A30" t="str">
-        <v>安卓android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B30" t="str">
-        <v>7k-8k</v>
+        <v>8k-10k</v>
       </c>
       <c r="C30" t="str">
-        <v>小牛信息</v>
+        <v>中康荣华</v>
       </c>
       <c r="D30" t="str">
         <v>管城回族区</v>
       </c>
       <c r="E30" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-8k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">8k-10k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="F30" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-8k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">8k-10k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="G30" t="str">
-        <v>软件开发 / 未融资 / 15-50人</v>
+        <v>软件服务｜咨询,生活服务 / 未融资 / 15-50人</v>
       </c>
     </row>
     <row r="31" xml:space="preserve">
@@ -1133,24 +1133,24 @@
         <v>安卓android开发工程师</v>
       </c>
       <c r="B31" t="str">
-        <v>10k-13k</v>
+        <v>7k-8k</v>
       </c>
       <c r="C31" t="str">
-        <v>木歌科技</v>
+        <v>小牛信息</v>
       </c>
       <c r="D31" t="str">
         <v>管城回族区</v>
       </c>
       <c r="E31" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-13k
-                        经验3-5年 / 大专</v>
+        <v xml:space="preserve">7k-8k
+                        经验1-3年 / 本科</v>
       </c>
       <c r="F31" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-13k
-                        经验3-5年 / 大专</v>
+        <v xml:space="preserve">7k-8k
+                        经验1-3年 / 本科</v>
       </c>
       <c r="G31" t="str">
-        <v>社交,房产家居 / 天使轮 / 少于15人</v>
+        <v>软件开发 / 未融资 / 15-50人</v>
       </c>
     </row>
     <row r="32" xml:space="preserve">
@@ -1180,32 +1180,57 @@
     </row>
     <row r="33" xml:space="preserve">
       <c r="A33" t="str">
+        <v>安卓android开发工程师</v>
+      </c>
+      <c r="B33" t="str">
+        <v>10k-13k</v>
+      </c>
+      <c r="C33" t="str">
+        <v>木歌科技</v>
+      </c>
+      <c r="D33" t="str">
+        <v>管城回族区</v>
+      </c>
+      <c r="E33" t="str" xml:space="preserve">
+        <v xml:space="preserve">10k-13k
+                        经验3-5年 / 大专</v>
+      </c>
+      <c r="F33" t="str" xml:space="preserve">
+        <v xml:space="preserve">10k-13k
+                        经验3-5年 / 大专</v>
+      </c>
+      <c r="G33" t="str">
+        <v>社交,房产家居 / 天使轮 / 少于15人</v>
+      </c>
+    </row>
+    <row r="34" xml:space="preserve">
+      <c r="A34" t="str">
         <v>高级android开发工程师</v>
       </c>
-      <c r="B33" t="str">
+      <c r="B34" t="str">
         <v>15k-25k</v>
       </c>
-      <c r="C33" t="str">
+      <c r="C34" t="str">
         <v>小熊博望</v>
       </c>
-      <c r="D33" t="str">
+      <c r="D34" t="str">
         <v>金水区</v>
       </c>
-      <c r="E33" t="str" xml:space="preserve">
+      <c r="E34" t="str" xml:space="preserve">
         <v xml:space="preserve">15k-25k
                         经验3-5年 / 本科</v>
       </c>
-      <c r="F33" t="str" xml:space="preserve">
+      <c r="F34" t="str" xml:space="preserve">
         <v xml:space="preserve">15k-25k
                         经验3-5年 / 本科</v>
       </c>
-      <c r="G33" t="str">
+      <c r="G34" t="str">
         <v>IT技术服务｜咨询,工具类产品 / 不需要融资 / 150-500人</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G33"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G34"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/招聘求职信息-招聘网站-人才网-拉勾招聘.xlsx
+++ b/app/src/main/assets/招聘求职信息-招聘网站-人才网-拉勾招聘.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,52 +405,52 @@
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" t="str">
-        <v>Android开发工程师</v>
+        <v>Android(安卓)软件开发工程师</v>
       </c>
       <c r="B2" t="str">
-        <v>10k-15k</v>
+        <v>6k-8k</v>
       </c>
       <c r="C2" t="str">
-        <v>小熊博望</v>
+        <v>华军融创</v>
       </c>
       <c r="D2" t="str">
-        <v>金水区</v>
+        <v>中原区</v>
       </c>
       <c r="E2" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-15k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">6k-8k
+                        经验不限 / 本科</v>
       </c>
       <c r="F2" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-15k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">6k-8k
+                        经验不限 / 本科</v>
       </c>
       <c r="G2" t="str">
-        <v>IT技术服务｜咨询,工具类产品 / 不需要融资 / 150-500人</v>
+        <v>软件服务｜咨询,IT技术服务｜咨询 / 未融资 / 15-50人</v>
       </c>
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" t="str">
-        <v>Android(安卓)软件开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B3" t="str">
-        <v>6k-8k</v>
+        <v>15k-25k</v>
       </c>
       <c r="C3" t="str">
-        <v>华军融创</v>
+        <v>小熊博望</v>
       </c>
       <c r="D3" t="str">
-        <v>中原区</v>
+        <v>金水区</v>
       </c>
       <c r="E3" t="str" xml:space="preserve">
-        <v xml:space="preserve">6k-8k
-                        经验不限 / 本科</v>
+        <v xml:space="preserve">15k-25k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="F3" t="str" xml:space="preserve">
-        <v xml:space="preserve">6k-8k
-                        经验不限 / 本科</v>
+        <v xml:space="preserve">15k-25k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="G3" t="str">
-        <v>软件服务｜咨询,IT技术服务｜咨询 / 未融资 / 15-50人</v>
+        <v>IT技术服务｜咨询,工具类产品 / 不需要融资 / 150-500人</v>
       </c>
     </row>
     <row r="4" xml:space="preserve">
@@ -525,7 +525,7 @@
                         经验3-5年 / 本科</v>
       </c>
       <c r="G6" t="str">
-        <v>IT技术服务｜咨询 / 天使轮 / 15-50人</v>
+        <v>游戏,IT技术服务｜咨询 / 天使轮 / 15-50人</v>
       </c>
     </row>
     <row r="7" xml:space="preserve">
@@ -780,10 +780,10 @@
     </row>
     <row r="17" xml:space="preserve">
       <c r="A17" t="str">
-        <v>Android实习工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>4k-6k</v>
+        <v>10k-15k</v>
       </c>
       <c r="C17" t="str">
         <v>小熊博望</v>
@@ -792,12 +792,12 @@
         <v>金水区</v>
       </c>
       <c r="E17" t="str" xml:space="preserve">
-        <v xml:space="preserve">4k-6k
-                        经验在校/应届 / 本科</v>
+        <v xml:space="preserve">10k-15k
+                        经验1-3年 / 本科</v>
       </c>
       <c r="F17" t="str" xml:space="preserve">
-        <v xml:space="preserve">4k-6k
-                        经验在校/应届 / 本科</v>
+        <v xml:space="preserve">10k-15k
+                        经验1-3年 / 本科</v>
       </c>
       <c r="G17" t="str">
         <v>IT技术服务｜咨询,工具类产品 / 不需要融资 / 150-500人</v>
@@ -855,52 +855,52 @@
     </row>
     <row r="20" xml:space="preserve">
       <c r="A20" t="str">
-        <v>Android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>6k-10k</v>
+        <v>10k-15k</v>
       </c>
       <c r="C20" t="str">
-        <v>泽尚网络</v>
+        <v>郑州艾影像文化传播有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>高新区</v>
+        <v>北环路</v>
       </c>
       <c r="E20" t="str" xml:space="preserve">
-        <v xml:space="preserve">6k-10k
-                        经验不限 / 不限</v>
+        <v xml:space="preserve">10k-15k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="F20" t="str" xml:space="preserve">
-        <v xml:space="preserve">6k-10k
-                        经验不限 / 不限</v>
+        <v xml:space="preserve">10k-15k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="G20" t="str">
-        <v>移动互联网,教育 / 不需要融资 / 15-50人</v>
+        <v>消费生活,电商 / 不需要融资 / 50-150人</v>
       </c>
     </row>
     <row r="21" xml:space="preserve">
       <c r="A21" t="str">
-        <v>高级android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>10k-15k</v>
+        <v>8k-10k</v>
       </c>
       <c r="C21" t="str">
-        <v>郑州艾影像文化传播有限公司</v>
+        <v>飞渡科技</v>
       </c>
       <c r="D21" t="str">
-        <v>北环路</v>
+        <v>郑东新区</v>
       </c>
       <c r="E21" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-15k
-                        经验3-5年 / 本科</v>
+        <v xml:space="preserve">8k-10k
+                        经验3-5年 / 大专</v>
       </c>
       <c r="F21" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-15k
-                        经验3-5年 / 本科</v>
+        <v xml:space="preserve">8k-10k
+                        经验3-5年 / 大专</v>
       </c>
       <c r="G21" t="str">
-        <v>消费生活,电商 / 不需要融资 / 50-150人</v>
+        <v>金融,工具 / 不需要融资 / 15-50人</v>
       </c>
     </row>
     <row r="22" xml:space="preserve">
@@ -908,224 +908,224 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B22" t="str">
-        <v>8k-10k</v>
+        <v>10k-15k</v>
       </c>
       <c r="C22" t="str">
-        <v>飞渡科技</v>
+        <v>建达软件</v>
       </c>
       <c r="D22" t="str">
-        <v>郑东新区</v>
+        <v>经开区</v>
       </c>
       <c r="E22" t="str" xml:space="preserve">
-        <v xml:space="preserve">8k-10k
-                        经验3-5年 / 大专</v>
+        <v xml:space="preserve">10k-15k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="F22" t="str" xml:space="preserve">
-        <v xml:space="preserve">8k-10k
-                        经验3-5年 / 大专</v>
+        <v xml:space="preserve">10k-15k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="G22" t="str">
-        <v>金融,工具 / 不需要融资 / 15-50人</v>
+        <v>企业服务,软件开发 / 未融资 / 15-50人</v>
       </c>
     </row>
     <row r="23" xml:space="preserve">
       <c r="A23" t="str">
-        <v>安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B23" t="str">
-        <v>10k-15k</v>
+        <v>5k-8k</v>
       </c>
       <c r="C23" t="str">
-        <v>建达软件</v>
+        <v>东方蓝深</v>
       </c>
       <c r="D23" t="str">
-        <v>经开区</v>
+        <v>二七区</v>
       </c>
       <c r="E23" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-15k
-                        经验3-5年 / 本科</v>
+        <v xml:space="preserve">5k-8k
+                        经验不限 / 本科</v>
       </c>
       <c r="F23" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-15k
-                        经验3-5年 / 本科</v>
+        <v xml:space="preserve">5k-8k
+                        经验不限 / 本科</v>
       </c>
       <c r="G23" t="str">
-        <v>企业服务,软件开发 / 未融资 / 15-50人</v>
+        <v>企业服务 / 不需要融资 / 50-150人</v>
       </c>
     </row>
     <row r="24" xml:space="preserve">
       <c r="A24" t="str">
-        <v>android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>5k-8k</v>
+        <v>8k-10k</v>
       </c>
       <c r="C24" t="str">
-        <v>东方蓝深</v>
+        <v>咿啦看书</v>
       </c>
       <c r="D24" t="str">
-        <v>二七区</v>
+        <v>金水区</v>
       </c>
       <c r="E24" t="str" xml:space="preserve">
-        <v xml:space="preserve">5k-8k
-                        经验不限 / 本科</v>
+        <v xml:space="preserve">8k-10k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="F24" t="str" xml:space="preserve">
-        <v xml:space="preserve">5k-8k
-                        经验不限 / 本科</v>
+        <v xml:space="preserve">8k-10k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="G24" t="str">
-        <v>企业服务 / 不需要融资 / 50-150人</v>
+        <v>工具类产品,软件服务｜咨询 / A轮 / 150-500人</v>
       </c>
     </row>
     <row r="25" xml:space="preserve">
       <c r="A25" t="str">
-        <v>安卓开发工程师</v>
+        <v>Android前端工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>8k-10k</v>
+        <v>9k-15k</v>
       </c>
       <c r="C25" t="str">
-        <v>咿啦看书</v>
+        <v>春永软件</v>
       </c>
       <c r="D25" t="str">
-        <v>金水区</v>
+        <v>郑东新区</v>
       </c>
       <c r="E25" t="str" xml:space="preserve">
-        <v xml:space="preserve">8k-10k
-                        经验3-5年 / 本科</v>
+        <v xml:space="preserve">9k-15k
+                        经验3-5年 / 大专</v>
       </c>
       <c r="F25" t="str" xml:space="preserve">
-        <v xml:space="preserve">8k-10k
-                        经验3-5年 / 本科</v>
+        <v xml:space="preserve">9k-15k
+                        经验3-5年 / 大专</v>
       </c>
       <c r="G25" t="str">
-        <v>工具类产品,软件服务｜咨询 / A轮 / 150-500人</v>
+        <v>MCN｜直播平台 / 不需要融资 / 15-50人</v>
       </c>
     </row>
     <row r="26" xml:space="preserve">
       <c r="A26" t="str">
-        <v>Android前端工程师</v>
+        <v>移动端开发（Android）</v>
       </c>
       <c r="B26" t="str">
-        <v>9k-15k</v>
+        <v>6k-8k</v>
       </c>
       <c r="C26" t="str">
-        <v>春永软件</v>
+        <v>豪弘电子商务集团有限公司</v>
       </c>
       <c r="D26" t="str">
         <v>郑东新区</v>
       </c>
       <c r="E26" t="str" xml:space="preserve">
-        <v xml:space="preserve">9k-15k
-                        经验3-5年 / 大专</v>
+        <v xml:space="preserve">6k-8k
+                        经验1-3年 / 本科</v>
       </c>
       <c r="F26" t="str" xml:space="preserve">
-        <v xml:space="preserve">9k-15k
-                        经验3-5年 / 大专</v>
+        <v xml:space="preserve">6k-8k
+                        经验1-3年 / 本科</v>
       </c>
       <c r="G26" t="str">
-        <v>MCN｜直播平台 / 不需要融资 / 15-50人</v>
+        <v>金融,其他 / 上市公司 / 150-500人</v>
       </c>
     </row>
     <row r="27" xml:space="preserve">
       <c r="A27" t="str">
-        <v>移动端开发（Android）</v>
+        <v>安卓android开发工程师</v>
       </c>
       <c r="B27" t="str">
-        <v>6k-8k</v>
+        <v>8k-12k</v>
       </c>
       <c r="C27" t="str">
-        <v>豪弘电子商务集团有限公司</v>
+        <v>八角信息</v>
       </c>
       <c r="D27" t="str">
-        <v>郑东新区</v>
+        <v>管城回族区</v>
       </c>
       <c r="E27" t="str" xml:space="preserve">
-        <v xml:space="preserve">6k-8k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">8k-12k
+                        经验3-5年 / 大专</v>
       </c>
       <c r="F27" t="str" xml:space="preserve">
-        <v xml:space="preserve">6k-8k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">8k-12k
+                        经验3-5年 / 大专</v>
       </c>
       <c r="G27" t="str">
-        <v>金融,其他 / 上市公司 / 150-500人</v>
+        <v>移动互联网 / 未融资 / 15-50人</v>
       </c>
     </row>
     <row r="28" xml:space="preserve">
       <c r="A28" t="str">
-        <v>安卓android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B28" t="str">
-        <v>8k-12k</v>
+        <v>1k-2k</v>
       </c>
       <c r="C28" t="str">
-        <v>八角信息</v>
+        <v>秀企科技</v>
       </c>
       <c r="D28" t="str">
-        <v>管城回族区</v>
+        <v>中原区</v>
       </c>
       <c r="E28" t="str" xml:space="preserve">
-        <v xml:space="preserve">8k-12k
-                        经验3-5年 / 大专</v>
+        <v xml:space="preserve">1k-2k
+                        经验不限 / 不限</v>
       </c>
       <c r="F28" t="str" xml:space="preserve">
-        <v xml:space="preserve">8k-12k
-                        经验3-5年 / 大专</v>
+        <v xml:space="preserve">1k-2k
+                        经验不限 / 不限</v>
       </c>
       <c r="G28" t="str">
-        <v>移动互联网 / 未融资 / 15-50人</v>
+        <v>企业服务 / 未融资 / 15-50人</v>
       </c>
     </row>
     <row r="29" xml:space="preserve">
       <c r="A29" t="str">
-        <v>android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B29" t="str">
-        <v>1k-2k</v>
+        <v>8k-10k</v>
       </c>
       <c r="C29" t="str">
-        <v>秀企科技</v>
+        <v>中康荣华</v>
       </c>
       <c r="D29" t="str">
-        <v>中原区</v>
+        <v>管城回族区</v>
       </c>
       <c r="E29" t="str" xml:space="preserve">
-        <v xml:space="preserve">1k-2k
-                        经验不限 / 不限</v>
+        <v xml:space="preserve">8k-10k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="F29" t="str" xml:space="preserve">
-        <v xml:space="preserve">1k-2k
-                        经验不限 / 不限</v>
+        <v xml:space="preserve">8k-10k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="G29" t="str">
-        <v>企业服务 / 未融资 / 15-50人</v>
+        <v>软件服务｜咨询,生活服务 / 未融资 / 15-50人</v>
       </c>
     </row>
     <row r="30" xml:space="preserve">
       <c r="A30" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓android开发工程师</v>
       </c>
       <c r="B30" t="str">
-        <v>8k-10k</v>
+        <v>7k-8k</v>
       </c>
       <c r="C30" t="str">
-        <v>中康荣华</v>
+        <v>小牛信息</v>
       </c>
       <c r="D30" t="str">
         <v>管城回族区</v>
       </c>
       <c r="E30" t="str" xml:space="preserve">
-        <v xml:space="preserve">8k-10k
-                        经验3-5年 / 本科</v>
+        <v xml:space="preserve">7k-8k
+                        经验1-3年 / 本科</v>
       </c>
       <c r="F30" t="str" xml:space="preserve">
-        <v xml:space="preserve">8k-10k
-                        经验3-5年 / 本科</v>
+        <v xml:space="preserve">7k-8k
+                        经验1-3年 / 本科</v>
       </c>
       <c r="G30" t="str">
-        <v>软件服务｜咨询,生活服务 / 未融资 / 15-50人</v>
+        <v>软件开发 / 未融资 / 15-50人</v>
       </c>
     </row>
     <row r="31" xml:space="preserve">
@@ -1133,104 +1133,54 @@
         <v>安卓android开发工程师</v>
       </c>
       <c r="B31" t="str">
-        <v>7k-8k</v>
+        <v>10k-13k</v>
       </c>
       <c r="C31" t="str">
-        <v>小牛信息</v>
+        <v>木歌科技</v>
       </c>
       <c r="D31" t="str">
         <v>管城回族区</v>
       </c>
       <c r="E31" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-8k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">10k-13k
+                        经验3-5年 / 大专</v>
       </c>
       <c r="F31" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-8k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">10k-13k
+                        经验3-5年 / 大专</v>
       </c>
       <c r="G31" t="str">
-        <v>软件开发 / 未融资 / 15-50人</v>
+        <v>社交,房产家居 / 天使轮 / 少于15人</v>
       </c>
     </row>
     <row r="32" xml:space="preserve">
       <c r="A32" t="str">
-        <v>Android开发工程师</v>
+        <v>Android实习工程师</v>
       </c>
       <c r="B32" t="str">
-        <v>6k-9k</v>
+        <v>4k-6k</v>
       </c>
       <c r="C32" t="str">
-        <v>泽尚网络</v>
+        <v>小熊博望</v>
       </c>
       <c r="D32" t="str">
-        <v>中原区</v>
+        <v>金水区</v>
       </c>
       <c r="E32" t="str" xml:space="preserve">
-        <v xml:space="preserve">6k-9k
-                        经验3-5年 / 不限</v>
+        <v xml:space="preserve">4k-6k
+                        经验在校/应届 / 本科</v>
       </c>
       <c r="F32" t="str" xml:space="preserve">
-        <v xml:space="preserve">6k-9k
-                        经验3-5年 / 不限</v>
+        <v xml:space="preserve">4k-6k
+                        经验在校/应届 / 本科</v>
       </c>
       <c r="G32" t="str">
-        <v>移动互联网,教育 / 不需要融资 / 15-50人</v>
-      </c>
-    </row>
-    <row r="33" xml:space="preserve">
-      <c r="A33" t="str">
-        <v>安卓android开发工程师</v>
-      </c>
-      <c r="B33" t="str">
-        <v>10k-13k</v>
-      </c>
-      <c r="C33" t="str">
-        <v>木歌科技</v>
-      </c>
-      <c r="D33" t="str">
-        <v>管城回族区</v>
-      </c>
-      <c r="E33" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-13k
-                        经验3-5年 / 大专</v>
-      </c>
-      <c r="F33" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-13k
-                        经验3-5年 / 大专</v>
-      </c>
-      <c r="G33" t="str">
-        <v>社交,房产家居 / 天使轮 / 少于15人</v>
-      </c>
-    </row>
-    <row r="34" xml:space="preserve">
-      <c r="A34" t="str">
-        <v>高级android开发工程师</v>
-      </c>
-      <c r="B34" t="str">
-        <v>15k-25k</v>
-      </c>
-      <c r="C34" t="str">
-        <v>小熊博望</v>
-      </c>
-      <c r="D34" t="str">
-        <v>金水区</v>
-      </c>
-      <c r="E34" t="str" xml:space="preserve">
-        <v xml:space="preserve">15k-25k
-                        经验3-5年 / 本科</v>
-      </c>
-      <c r="F34" t="str" xml:space="preserve">
-        <v xml:space="preserve">15k-25k
-                        经验3-5年 / 本科</v>
-      </c>
-      <c r="G34" t="str">
         <v>IT技术服务｜咨询,工具类产品 / 不需要融资 / 150-500人</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G34"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G32"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/招聘求职信息-招聘网站-人才网-拉勾招聘.xlsx
+++ b/app/src/main/assets/招聘求职信息-招聘网站-人才网-拉勾招聘.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,77 +405,77 @@
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" t="str">
-        <v>Android(安卓)软件开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B2" t="str">
         <v>6k-8k</v>
       </c>
       <c r="C2" t="str">
-        <v>华军融创</v>
+        <v>飞翔畅盛</v>
       </c>
       <c r="D2" t="str">
-        <v>中原区</v>
+        <v>高新区</v>
       </c>
       <c r="E2" t="str" xml:space="preserve">
         <v xml:space="preserve">6k-8k
-                        经验不限 / 本科</v>
+                        经验1-3年 / 大专</v>
       </c>
       <c r="F2" t="str" xml:space="preserve">
         <v xml:space="preserve">6k-8k
-                        经验不限 / 本科</v>
+                        经验1-3年 / 大专</v>
       </c>
       <c r="G2" t="str">
-        <v>软件服务｜咨询,IT技术服务｜咨询 / 未融资 / 15-50人</v>
+        <v>企业服务 / 不需要融资 / 15-50人</v>
       </c>
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" t="str">
-        <v>高级android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B3" t="str">
-        <v>15k-25k</v>
+        <v>5K-10K</v>
       </c>
       <c r="C3" t="str">
-        <v>小熊博望</v>
+        <v>叁柒壹</v>
       </c>
       <c r="D3" t="str">
-        <v>金水区</v>
+        <v>中原区</v>
       </c>
       <c r="E3" t="str" xml:space="preserve">
-        <v xml:space="preserve">15k-25k
-                        经验3-5年 / 本科</v>
+        <v xml:space="preserve">5K-10K
+                        经验1-3年 / 本科</v>
       </c>
       <c r="F3" t="str" xml:space="preserve">
-        <v xml:space="preserve">15k-25k
-                        经验3-5年 / 本科</v>
+        <v xml:space="preserve">5K-10K
+                        经验1-3年 / 本科</v>
       </c>
       <c r="G3" t="str">
-        <v>IT技术服务｜咨询,工具类产品 / 不需要融资 / 150-500人</v>
+        <v>移动互联网,硬件 / 未融资 / 少于15人</v>
       </c>
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4" t="str">
-        <v>android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B4" t="str">
-        <v>12k-20k</v>
+        <v>10k-15k</v>
       </c>
       <c r="C4" t="str">
-        <v>琥珀创想</v>
+        <v>甜心互娱</v>
       </c>
       <c r="D4" t="str">
-        <v>金水区</v>
+        <v>高新区</v>
       </c>
       <c r="E4" t="str" xml:space="preserve">
-        <v xml:space="preserve">12k-20k
+        <v xml:space="preserve">10k-15k
                         经验3-5年 / 本科</v>
       </c>
       <c r="F4" t="str" xml:space="preserve">
-        <v xml:space="preserve">12k-20k
+        <v xml:space="preserve">10k-15k
                         经验3-5年 / 本科</v>
       </c>
       <c r="G4" t="str">
-        <v>工具类产品 / 不需要融资 / 50-150人</v>
+        <v>游戏 / B轮 / 150-500人</v>
       </c>
     </row>
     <row r="5" xml:space="preserve">
@@ -483,124 +483,124 @@
         <v>安卓android开发工程师</v>
       </c>
       <c r="B5" t="str">
-        <v>7k-12k</v>
+        <v>8k-15k</v>
       </c>
       <c r="C5" t="str">
-        <v>天牛大数据</v>
+        <v>北京智慧图</v>
       </c>
       <c r="D5" t="str">
         <v>高新区</v>
       </c>
       <c r="E5" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-12k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">8k-15k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="F5" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-12k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">8k-15k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="G5" t="str">
-        <v>其他 / 未融资 / 15-50人</v>
+        <v>数据服务｜咨询,人工智能服务 / C轮 / 150-500人</v>
       </c>
     </row>
     <row r="6" xml:space="preserve">
       <c r="A6" t="str">
-        <v>安卓开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B6" t="str">
-        <v>10k-13k</v>
+        <v>10k-15k</v>
       </c>
       <c r="C6" t="str">
-        <v>飞渡科技</v>
+        <v>小熊博望</v>
       </c>
       <c r="D6" t="str">
         <v>金水区</v>
       </c>
       <c r="E6" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-13k
-                        经验3-5年 / 本科</v>
+        <v xml:space="preserve">10k-15k
+                        经验1-3年 / 本科</v>
       </c>
       <c r="F6" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-13k
-                        经验3-5年 / 本科</v>
+        <v xml:space="preserve">10k-15k
+                        经验1-3年 / 本科</v>
       </c>
       <c r="G6" t="str">
-        <v>游戏,IT技术服务｜咨询 / 天使轮 / 15-50人</v>
+        <v>IT技术服务｜咨询,工具类产品 / 不需要融资 / 150-500人</v>
       </c>
     </row>
     <row r="7" xml:space="preserve">
       <c r="A7" t="str">
-        <v>Android</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>5k-10k</v>
+        <v>6k-8k</v>
       </c>
       <c r="C7" t="str">
-        <v>大河网</v>
+        <v>天派信息技术</v>
       </c>
       <c r="D7" t="str">
-        <v>中原区</v>
+        <v>高新区</v>
       </c>
       <c r="E7" t="str" xml:space="preserve">
-        <v xml:space="preserve">5k-10k
-                        经验3-5年 / 本科</v>
+        <v xml:space="preserve">6k-8k
+                        经验3-5年 / 不限</v>
       </c>
       <c r="F7" t="str" xml:space="preserve">
-        <v xml:space="preserve">5k-10k
-                        经验3-5年 / 本科</v>
+        <v xml:space="preserve">6k-8k
+                        经验3-5年 / 不限</v>
       </c>
       <c r="G7" t="str">
-        <v>内容资讯,内容社区 / 不需要融资 / 150-500人</v>
+        <v>通讯电子,软件开发 / 未融资 / 15-50人</v>
       </c>
     </row>
     <row r="8" xml:space="preserve">
       <c r="A8" t="str">
-        <v>android开发工程师</v>
+        <v>安卓android开发工程师</v>
       </c>
       <c r="B8" t="str">
-        <v>5k-10k</v>
+        <v>17k-27k</v>
       </c>
       <c r="C8" t="str">
-        <v>优量科技</v>
+        <v>易宝软件科技（南京）有限公司</v>
       </c>
       <c r="D8" t="str">
-        <v>淮河路</v>
+        <v>中原区</v>
       </c>
       <c r="E8" t="str" xml:space="preserve">
-        <v xml:space="preserve">5k-10k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">17k-27k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="F8" t="str" xml:space="preserve">
-        <v xml:space="preserve">5k-10k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">17k-27k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="G8" t="str">
-        <v>软件开发 / 未融资 / 少于15人</v>
+        <v>软件服务｜咨询,IT技术服务｜咨询 / 上市公司 / 150-500人</v>
       </c>
     </row>
     <row r="9" xml:space="preserve">
       <c r="A9" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓开发</v>
       </c>
       <c r="B9" t="str">
-        <v>6k-8k</v>
+        <v>9k-13k</v>
       </c>
       <c r="C9" t="str">
-        <v>天派信息技术</v>
+        <v>河南通建</v>
       </c>
       <c r="D9" t="str">
-        <v>高新区</v>
+        <v>管城回族区</v>
       </c>
       <c r="E9" t="str" xml:space="preserve">
-        <v xml:space="preserve">6k-8k
-                        经验3-5年 / 不限</v>
+        <v xml:space="preserve">9k-13k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="F9" t="str" xml:space="preserve">
-        <v xml:space="preserve">6k-8k
-                        经验3-5年 / 不限</v>
+        <v xml:space="preserve">9k-13k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="G9" t="str">
-        <v>通讯电子,软件开发 / 未融资 / 15-50人</v>
+        <v>通讯电子 / 上市公司 / 500-2000人</v>
       </c>
     </row>
     <row r="10" xml:space="preserve">
@@ -608,74 +608,74 @@
         <v>android开发工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>7k-10k</v>
+        <v>12k-20k</v>
       </c>
       <c r="C10" t="str">
-        <v>诺云科技</v>
+        <v>琥珀创想</v>
       </c>
       <c r="D10" t="str">
-        <v>高新区</v>
+        <v>金水区</v>
       </c>
       <c r="E10" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-10k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">12k-20k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="F10" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-10k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">12k-20k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="G10" t="str">
-        <v>移动互联网 / 未融资 / 15-50人</v>
+        <v>工具类产品 / 不需要融资 / 50-150人</v>
       </c>
     </row>
     <row r="11" xml:space="preserve">
       <c r="A11" t="str">
-        <v>安卓android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>8k-12k</v>
+        <v>10k-15k</v>
       </c>
       <c r="C11" t="str">
-        <v>匠库信息</v>
+        <v>吉立达机器人</v>
       </c>
       <c r="D11" t="str">
-        <v>二七区</v>
+        <v>金水区</v>
       </c>
       <c r="E11" t="str" xml:space="preserve">
-        <v xml:space="preserve">8k-12k
-                        经验3-5年 / 不限</v>
+        <v xml:space="preserve">10k-15k
+                        经验1-3年 / 大专</v>
       </c>
       <c r="F11" t="str" xml:space="preserve">
-        <v xml:space="preserve">8k-12k
-                        经验3-5年 / 不限</v>
+        <v xml:space="preserve">10k-15k
+                        经验1-3年 / 大专</v>
       </c>
       <c r="G11" t="str">
-        <v>软件服务｜咨询,IT技术服务｜咨询 / 不需要融资 / 15-50人</v>
+        <v>人工智能服务,新零售,智能硬件 / A轮 / 150-500人</v>
       </c>
     </row>
     <row r="12" xml:space="preserve">
       <c r="A12" t="str">
-        <v>Android</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B12" t="str">
-        <v>15k-30k</v>
+        <v>5k-10k</v>
       </c>
       <c r="C12" t="str">
-        <v>卓见软件</v>
+        <v>优量科技</v>
       </c>
       <c r="D12" t="str">
-        <v>经二路</v>
+        <v>淮河路</v>
       </c>
       <c r="E12" t="str" xml:space="preserve">
-        <v xml:space="preserve">15k-30k
-                        经验5-10年 / 本科</v>
+        <v xml:space="preserve">5k-10k
+                        经验1-3年 / 本科</v>
       </c>
       <c r="F12" t="str" xml:space="preserve">
-        <v xml:space="preserve">15k-30k
-                        经验5-10年 / 本科</v>
+        <v xml:space="preserve">5k-10k
+                        经验1-3年 / 本科</v>
       </c>
       <c r="G12" t="str">
-        <v>移动互联网 / 不需要融资 / 50-150人</v>
+        <v>软件开发 / 未融资 / 少于15人</v>
       </c>
     </row>
     <row r="13" xml:space="preserve">
@@ -683,24 +683,24 @@
         <v>android开发工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>15k-20k</v>
+        <v>7k-10k</v>
       </c>
       <c r="C13" t="str">
-        <v>萨摩耶数科</v>
+        <v>诺云科技</v>
       </c>
       <c r="D13" t="str">
-        <v>管城区</v>
+        <v>高新区</v>
       </c>
       <c r="E13" t="str" xml:space="preserve">
-        <v xml:space="preserve">15k-20k
-                        经验5-10年 / 本科</v>
+        <v xml:space="preserve">7k-10k
+                        经验1-3年 / 本科</v>
       </c>
       <c r="F13" t="str" xml:space="preserve">
-        <v xml:space="preserve">15k-20k
-                        经验5-10年 / 本科</v>
+        <v xml:space="preserve">7k-10k
+                        经验1-3年 / 本科</v>
       </c>
       <c r="G13" t="str">
-        <v>科技金融 / C轮 / 150-500人</v>
+        <v>移动互联网 / 未融资 / 15-50人</v>
       </c>
     </row>
     <row r="14" xml:space="preserve">
@@ -708,82 +708,82 @@
         <v>android开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>6k-9k</v>
+        <v>15k-20k</v>
       </c>
       <c r="C14" t="str">
-        <v>品辰电子</v>
+        <v>萨摩耶数科</v>
       </c>
       <c r="D14" t="str">
-        <v>高新区</v>
+        <v>管城区</v>
       </c>
       <c r="E14" t="str" xml:space="preserve">
-        <v xml:space="preserve">6k-9k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">15k-20k
+                        经验5-10年 / 本科</v>
       </c>
       <c r="F14" t="str" xml:space="preserve">
-        <v xml:space="preserve">6k-9k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">15k-20k
+                        经验5-10年 / 本科</v>
       </c>
       <c r="G14" t="str">
-        <v>医疗丨健康,数据服务 / 未融资 / 50-150人</v>
+        <v>科技金融 / C轮 / 150-500人</v>
       </c>
     </row>
     <row r="15" xml:space="preserve">
       <c r="A15" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓程序员加班有加班费</v>
       </c>
       <c r="B15" t="str">
-        <v>5k-8k</v>
+        <v>7k-12k</v>
       </c>
       <c r="C15" t="str">
-        <v>启邦网络</v>
+        <v>领红网络</v>
       </c>
       <c r="D15" t="str">
-        <v>无</v>
+        <v>北环</v>
       </c>
       <c r="E15" t="str" xml:space="preserve">
-        <v xml:space="preserve">5k-8k
-                        经验不限 / 不限</v>
+        <v xml:space="preserve">7k-12k
+                        经验1-3年 / 不限</v>
       </c>
       <c r="F15" t="str" xml:space="preserve">
-        <v xml:space="preserve">5k-8k
-                        经验不限 / 不限</v>
+        <v xml:space="preserve">7k-12k
+                        经验1-3年 / 不限</v>
       </c>
       <c r="G15" t="str">
-        <v>物联网、软件开发 / 未融资 / 少于15人</v>
+        <v>软件开发,区块链 / 未融资 / 15-50人</v>
       </c>
     </row>
     <row r="16" xml:space="preserve">
       <c r="A16" t="str">
-        <v>Android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>5k-8k</v>
+        <v>6k-10k</v>
       </c>
       <c r="C16" t="str">
-        <v>华元嘉信集团</v>
+        <v>研动网络</v>
       </c>
       <c r="D16" t="str">
-        <v>二七万达</v>
+        <v>金水区</v>
       </c>
       <c r="E16" t="str" xml:space="preserve">
-        <v xml:space="preserve">5k-8k
+        <v xml:space="preserve">6k-10k
                         经验1-3年 / 大专</v>
       </c>
       <c r="F16" t="str" xml:space="preserve">
-        <v xml:space="preserve">5k-8k
+        <v xml:space="preserve">6k-10k
                         经验1-3年 / 大专</v>
       </c>
       <c r="G16" t="str">
-        <v>贸易｜进出口,智能硬件 / 未融资 / 50-150人</v>
+        <v>软件服务｜咨询,IT技术服务｜咨询 / 未融资 / 15-50人</v>
       </c>
     </row>
     <row r="17" xml:space="preserve">
       <c r="A17" t="str">
-        <v>Android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>10k-15k</v>
+        <v>15k-25k</v>
       </c>
       <c r="C17" t="str">
         <v>小熊博望</v>
@@ -792,12 +792,12 @@
         <v>金水区</v>
       </c>
       <c r="E17" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-15k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">15k-25k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="F17" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-15k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">15k-25k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="G17" t="str">
         <v>IT技术服务｜咨询,工具类产品 / 不需要融资 / 150-500人</v>
@@ -805,77 +805,77 @@
     </row>
     <row r="18" xml:space="preserve">
       <c r="A18" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B18" t="str">
-        <v>8k-10k</v>
+        <v>4k-8k</v>
       </c>
       <c r="C18" t="str">
-        <v>中原通大数据服务</v>
+        <v>漫宅动漫</v>
       </c>
       <c r="D18" t="str">
-        <v>金水区</v>
+        <v>高新区</v>
       </c>
       <c r="E18" t="str" xml:space="preserve">
-        <v xml:space="preserve">8k-10k
-                        经验不限 / 本科</v>
+        <v xml:space="preserve">4k-8k
+                        经验1-3年 / 本科</v>
       </c>
       <c r="F18" t="str" xml:space="preserve">
-        <v xml:space="preserve">8k-10k
-                        经验不限 / 本科</v>
+        <v xml:space="preserve">4k-8k
+                        经验1-3年 / 本科</v>
       </c>
       <c r="G18" t="str">
-        <v>人工智能,软件开发 / 不需要融资 / 500-2000人</v>
+        <v>影视｜动漫 / 未融资 / 50-150人</v>
       </c>
     </row>
     <row r="19" xml:space="preserve">
       <c r="A19" t="str">
-        <v>android开发工程师</v>
+        <v>安卓android开发工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>7k-10k</v>
+        <v>8k-12k</v>
       </c>
       <c r="C19" t="str">
-        <v>每天农资</v>
+        <v>匠库信息</v>
       </c>
       <c r="D19" t="str">
-        <v>金水区</v>
+        <v>二七区</v>
       </c>
       <c r="E19" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-10k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">8k-12k
+                        经验3-5年 / 不限</v>
       </c>
       <c r="F19" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-10k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">8k-12k
+                        经验3-5年 / 不限</v>
       </c>
       <c r="G19" t="str">
-        <v>电商,其他 / 未融资 / 15-50人</v>
+        <v>软件服务｜咨询,IT技术服务｜咨询 / 不需要融资 / 15-50人</v>
       </c>
     </row>
     <row r="20" xml:space="preserve">
       <c r="A20" t="str">
-        <v>高级android开发工程师</v>
+        <v>安卓android开发工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>10k-15k</v>
+        <v>7k-12k</v>
       </c>
       <c r="C20" t="str">
-        <v>郑州艾影像文化传播有限公司</v>
+        <v>天牛大数据</v>
       </c>
       <c r="D20" t="str">
-        <v>北环路</v>
+        <v>高新区</v>
       </c>
       <c r="E20" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-15k
-                        经验3-5年 / 本科</v>
+        <v xml:space="preserve">7k-12k
+                        经验1-3年 / 本科</v>
       </c>
       <c r="F20" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-15k
-                        经验3-5年 / 本科</v>
+        <v xml:space="preserve">7k-12k
+                        经验1-3年 / 本科</v>
       </c>
       <c r="G20" t="str">
-        <v>消费生活,电商 / 不需要融资 / 50-150人</v>
+        <v>其他 / 未融资 / 15-50人</v>
       </c>
     </row>
     <row r="21" xml:space="preserve">
@@ -883,174 +883,174 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>8k-10k</v>
+        <v>10k-13k</v>
       </c>
       <c r="C21" t="str">
         <v>飞渡科技</v>
       </c>
       <c r="D21" t="str">
-        <v>郑东新区</v>
+        <v>金水区</v>
       </c>
       <c r="E21" t="str" xml:space="preserve">
-        <v xml:space="preserve">8k-10k
-                        经验3-5年 / 大专</v>
+        <v xml:space="preserve">10k-13k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="F21" t="str" xml:space="preserve">
-        <v xml:space="preserve">8k-10k
-                        经验3-5年 / 大专</v>
+        <v xml:space="preserve">10k-13k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="G21" t="str">
-        <v>金融,工具 / 不需要融资 / 15-50人</v>
+        <v>游戏,IT技术服务｜咨询 / 天使轮 / 15-50人</v>
       </c>
     </row>
     <row r="22" xml:space="preserve">
       <c r="A22" t="str">
-        <v>安卓开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B22" t="str">
-        <v>10k-15k</v>
+        <v>5k-10k</v>
       </c>
       <c r="C22" t="str">
-        <v>建达软件</v>
+        <v>大河网</v>
       </c>
       <c r="D22" t="str">
-        <v>经开区</v>
+        <v>中原区</v>
       </c>
       <c r="E22" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-15k
+        <v xml:space="preserve">5k-10k
                         经验3-5年 / 本科</v>
       </c>
       <c r="F22" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-15k
+        <v xml:space="preserve">5k-10k
                         经验3-5年 / 本科</v>
       </c>
       <c r="G22" t="str">
-        <v>企业服务,软件开发 / 未融资 / 15-50人</v>
+        <v>内容资讯,内容社区 / 不需要融资 / 150-500人</v>
       </c>
     </row>
     <row r="23" xml:space="preserve">
       <c r="A23" t="str">
-        <v>android开发工程师</v>
+        <v>Android</v>
       </c>
       <c r="B23" t="str">
-        <v>5k-8k</v>
+        <v>15k-30k</v>
       </c>
       <c r="C23" t="str">
-        <v>东方蓝深</v>
+        <v>卓见软件</v>
       </c>
       <c r="D23" t="str">
-        <v>二七区</v>
+        <v>经二路</v>
       </c>
       <c r="E23" t="str" xml:space="preserve">
-        <v xml:space="preserve">5k-8k
-                        经验不限 / 本科</v>
+        <v xml:space="preserve">15k-30k
+                        经验5-10年 / 本科</v>
       </c>
       <c r="F23" t="str" xml:space="preserve">
-        <v xml:space="preserve">5k-8k
-                        经验不限 / 本科</v>
+        <v xml:space="preserve">15k-30k
+                        经验5-10年 / 本科</v>
       </c>
       <c r="G23" t="str">
-        <v>企业服务 / 不需要融资 / 50-150人</v>
+        <v>移动互联网 / 不需要融资 / 50-150人</v>
       </c>
     </row>
     <row r="24" xml:space="preserve">
       <c r="A24" t="str">
-        <v>安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>8k-10k</v>
+        <v>6k-9k</v>
       </c>
       <c r="C24" t="str">
-        <v>咿啦看书</v>
+        <v>品辰电子</v>
       </c>
       <c r="D24" t="str">
-        <v>金水区</v>
+        <v>高新区</v>
       </c>
       <c r="E24" t="str" xml:space="preserve">
-        <v xml:space="preserve">8k-10k
-                        经验3-5年 / 本科</v>
+        <v xml:space="preserve">6k-9k
+                        经验1-3年 / 本科</v>
       </c>
       <c r="F24" t="str" xml:space="preserve">
-        <v xml:space="preserve">8k-10k
-                        经验3-5年 / 本科</v>
+        <v xml:space="preserve">6k-9k
+                        经验1-3年 / 本科</v>
       </c>
       <c r="G24" t="str">
-        <v>工具类产品,软件服务｜咨询 / A轮 / 150-500人</v>
+        <v>医疗丨健康,数据服务 / 未融资 / 50-150人</v>
       </c>
     </row>
     <row r="25" xml:space="preserve">
       <c r="A25" t="str">
-        <v>Android前端工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>9k-15k</v>
+        <v>5k-8k</v>
       </c>
       <c r="C25" t="str">
-        <v>春永软件</v>
+        <v>启邦网络</v>
       </c>
       <c r="D25" t="str">
-        <v>郑东新区</v>
+        <v>无</v>
       </c>
       <c r="E25" t="str" xml:space="preserve">
-        <v xml:space="preserve">9k-15k
-                        经验3-5年 / 大专</v>
+        <v xml:space="preserve">5k-8k
+                        经验不限 / 不限</v>
       </c>
       <c r="F25" t="str" xml:space="preserve">
-        <v xml:space="preserve">9k-15k
-                        经验3-5年 / 大专</v>
+        <v xml:space="preserve">5k-8k
+                        经验不限 / 不限</v>
       </c>
       <c r="G25" t="str">
-        <v>MCN｜直播平台 / 不需要融资 / 15-50人</v>
+        <v>物联网、软件开发 / 未融资 / 少于15人</v>
       </c>
     </row>
     <row r="26" xml:space="preserve">
       <c r="A26" t="str">
-        <v>移动端开发（Android）</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B26" t="str">
-        <v>6k-8k</v>
+        <v>5k-8k</v>
       </c>
       <c r="C26" t="str">
-        <v>豪弘电子商务集团有限公司</v>
+        <v>华元嘉信集团</v>
       </c>
       <c r="D26" t="str">
-        <v>郑东新区</v>
+        <v>二七万达</v>
       </c>
       <c r="E26" t="str" xml:space="preserve">
-        <v xml:space="preserve">6k-8k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">5k-8k
+                        经验1-3年 / 大专</v>
       </c>
       <c r="F26" t="str" xml:space="preserve">
-        <v xml:space="preserve">6k-8k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">5k-8k
+                        经验1-3年 / 大专</v>
       </c>
       <c r="G26" t="str">
-        <v>金融,其他 / 上市公司 / 150-500人</v>
+        <v>贸易｜进出口,智能硬件 / 未融资 / 50-150人</v>
       </c>
     </row>
     <row r="27" xml:space="preserve">
       <c r="A27" t="str">
-        <v>安卓android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B27" t="str">
-        <v>8k-12k</v>
+        <v>8k-10k</v>
       </c>
       <c r="C27" t="str">
-        <v>八角信息</v>
+        <v>中原通大数据服务</v>
       </c>
       <c r="D27" t="str">
-        <v>管城回族区</v>
+        <v>金水区</v>
       </c>
       <c r="E27" t="str" xml:space="preserve">
-        <v xml:space="preserve">8k-12k
-                        经验3-5年 / 大专</v>
+        <v xml:space="preserve">8k-10k
+                        经验不限 / 本科</v>
       </c>
       <c r="F27" t="str" xml:space="preserve">
-        <v xml:space="preserve">8k-12k
-                        经验3-5年 / 大专</v>
+        <v xml:space="preserve">8k-10k
+                        经验不限 / 本科</v>
       </c>
       <c r="G27" t="str">
-        <v>移动互联网 / 未融资 / 15-50人</v>
+        <v>人工智能,软件开发 / 不需要融资 / 500-2000人</v>
       </c>
     </row>
     <row r="28" xml:space="preserve">
@@ -1058,99 +1058,99 @@
         <v>android开发工程师</v>
       </c>
       <c r="B28" t="str">
-        <v>1k-2k</v>
+        <v>7k-10k</v>
       </c>
       <c r="C28" t="str">
-        <v>秀企科技</v>
+        <v>每天农资</v>
       </c>
       <c r="D28" t="str">
-        <v>中原区</v>
+        <v>金水区</v>
       </c>
       <c r="E28" t="str" xml:space="preserve">
-        <v xml:space="preserve">1k-2k
-                        经验不限 / 不限</v>
+        <v xml:space="preserve">7k-10k
+                        经验1-3年 / 本科</v>
       </c>
       <c r="F28" t="str" xml:space="preserve">
-        <v xml:space="preserve">1k-2k
-                        经验不限 / 不限</v>
+        <v xml:space="preserve">7k-10k
+                        经验1-3年 / 本科</v>
       </c>
       <c r="G28" t="str">
-        <v>企业服务 / 未融资 / 15-50人</v>
+        <v>电商,其他 / 未融资 / 15-50人</v>
       </c>
     </row>
     <row r="29" xml:space="preserve">
       <c r="A29" t="str">
-        <v>Android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B29" t="str">
-        <v>8k-10k</v>
+        <v>10k-15k</v>
       </c>
       <c r="C29" t="str">
-        <v>中康荣华</v>
+        <v>郑州艾影像文化传播有限公司</v>
       </c>
       <c r="D29" t="str">
-        <v>管城回族区</v>
+        <v>北环路</v>
       </c>
       <c r="E29" t="str" xml:space="preserve">
-        <v xml:space="preserve">8k-10k
+        <v xml:space="preserve">10k-15k
                         经验3-5年 / 本科</v>
       </c>
       <c r="F29" t="str" xml:space="preserve">
-        <v xml:space="preserve">8k-10k
+        <v xml:space="preserve">10k-15k
                         经验3-5年 / 本科</v>
       </c>
       <c r="G29" t="str">
-        <v>软件服务｜咨询,生活服务 / 未融资 / 15-50人</v>
+        <v>消费生活,电商 / 不需要融资 / 50-150人</v>
       </c>
     </row>
     <row r="30" xml:space="preserve">
       <c r="A30" t="str">
-        <v>安卓android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B30" t="str">
-        <v>7k-8k</v>
+        <v>8k-10k</v>
       </c>
       <c r="C30" t="str">
-        <v>小牛信息</v>
+        <v>飞渡科技</v>
       </c>
       <c r="D30" t="str">
-        <v>管城回族区</v>
+        <v>郑东新区</v>
       </c>
       <c r="E30" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-8k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">8k-10k
+                        经验3-5年 / 大专</v>
       </c>
       <c r="F30" t="str" xml:space="preserve">
-        <v xml:space="preserve">7k-8k
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">8k-10k
+                        经验3-5年 / 大专</v>
       </c>
       <c r="G30" t="str">
-        <v>软件开发 / 未融资 / 15-50人</v>
+        <v>金融,工具 / 不需要融资 / 15-50人</v>
       </c>
     </row>
     <row r="31" xml:space="preserve">
       <c r="A31" t="str">
-        <v>安卓android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B31" t="str">
-        <v>10k-13k</v>
+        <v>10k-15k</v>
       </c>
       <c r="C31" t="str">
-        <v>木歌科技</v>
+        <v>建达软件</v>
       </c>
       <c r="D31" t="str">
-        <v>管城回族区</v>
+        <v>经开区</v>
       </c>
       <c r="E31" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-13k
-                        经验3-5年 / 大专</v>
+        <v xml:space="preserve">10k-15k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="F31" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-13k
-                        经验3-5年 / 大专</v>
+        <v xml:space="preserve">10k-15k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="G31" t="str">
-        <v>社交,房产家居 / 天使轮 / 少于15人</v>
+        <v>企业服务,软件开发 / 未融资 / 15-50人</v>
       </c>
     </row>
     <row r="32" xml:space="preserve">
@@ -1178,9 +1178,209 @@
         <v>IT技术服务｜咨询,工具类产品 / 不需要融资 / 150-500人</v>
       </c>
     </row>
+    <row r="33" xml:space="preserve">
+      <c r="A33" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B33" t="str">
+        <v>5k-8k</v>
+      </c>
+      <c r="C33" t="str">
+        <v>东方蓝深</v>
+      </c>
+      <c r="D33" t="str">
+        <v>二七区</v>
+      </c>
+      <c r="E33" t="str" xml:space="preserve">
+        <v xml:space="preserve">5k-8k
+                        经验不限 / 本科</v>
+      </c>
+      <c r="F33" t="str" xml:space="preserve">
+        <v xml:space="preserve">5k-8k
+                        经验不限 / 本科</v>
+      </c>
+      <c r="G33" t="str">
+        <v>企业服务 / 不需要融资 / 50-150人</v>
+      </c>
+    </row>
+    <row r="34" xml:space="preserve">
+      <c r="A34" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B34" t="str">
+        <v>8k-10k</v>
+      </c>
+      <c r="C34" t="str">
+        <v>咿啦看书</v>
+      </c>
+      <c r="D34" t="str">
+        <v>金水区</v>
+      </c>
+      <c r="E34" t="str" xml:space="preserve">
+        <v xml:space="preserve">8k-10k
+                        经验3-5年 / 本科</v>
+      </c>
+      <c r="F34" t="str" xml:space="preserve">
+        <v xml:space="preserve">8k-10k
+                        经验3-5年 / 本科</v>
+      </c>
+      <c r="G34" t="str">
+        <v>工具类产品,软件服务｜咨询 / A轮 / 150-500人</v>
+      </c>
+    </row>
+    <row r="35" xml:space="preserve">
+      <c r="A35" t="str">
+        <v>Android前端工程师</v>
+      </c>
+      <c r="B35" t="str">
+        <v>9k-15k</v>
+      </c>
+      <c r="C35" t="str">
+        <v>春永软件</v>
+      </c>
+      <c r="D35" t="str">
+        <v>郑东新区</v>
+      </c>
+      <c r="E35" t="str" xml:space="preserve">
+        <v xml:space="preserve">9k-15k
+                        经验3-5年 / 大专</v>
+      </c>
+      <c r="F35" t="str" xml:space="preserve">
+        <v xml:space="preserve">9k-15k
+                        经验3-5年 / 大专</v>
+      </c>
+      <c r="G35" t="str">
+        <v>MCN｜直播平台 / 不需要融资 / 15-50人</v>
+      </c>
+    </row>
+    <row r="36" xml:space="preserve">
+      <c r="A36" t="str">
+        <v>移动端开发（Android）</v>
+      </c>
+      <c r="B36" t="str">
+        <v>6k-8k</v>
+      </c>
+      <c r="C36" t="str">
+        <v>豪弘电子商务集团有限公司</v>
+      </c>
+      <c r="D36" t="str">
+        <v>郑东新区</v>
+      </c>
+      <c r="E36" t="str" xml:space="preserve">
+        <v xml:space="preserve">6k-8k
+                        经验1-3年 / 本科</v>
+      </c>
+      <c r="F36" t="str" xml:space="preserve">
+        <v xml:space="preserve">6k-8k
+                        经验1-3年 / 本科</v>
+      </c>
+      <c r="G36" t="str">
+        <v>金融,其他 / 上市公司 / 150-500人</v>
+      </c>
+    </row>
+    <row r="37" xml:space="preserve">
+      <c r="A37" t="str">
+        <v>安卓android开发工程师</v>
+      </c>
+      <c r="B37" t="str">
+        <v>8k-12k</v>
+      </c>
+      <c r="C37" t="str">
+        <v>八角信息</v>
+      </c>
+      <c r="D37" t="str">
+        <v>管城回族区</v>
+      </c>
+      <c r="E37" t="str" xml:space="preserve">
+        <v xml:space="preserve">8k-12k
+                        经验3-5年 / 大专</v>
+      </c>
+      <c r="F37" t="str" xml:space="preserve">
+        <v xml:space="preserve">8k-12k
+                        经验3-5年 / 大专</v>
+      </c>
+      <c r="G37" t="str">
+        <v>移动互联网 / 未融资 / 15-50人</v>
+      </c>
+    </row>
+    <row r="38" xml:space="preserve">
+      <c r="A38" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B38" t="str">
+        <v>1k-2k</v>
+      </c>
+      <c r="C38" t="str">
+        <v>秀企科技</v>
+      </c>
+      <c r="D38" t="str">
+        <v>中原区</v>
+      </c>
+      <c r="E38" t="str" xml:space="preserve">
+        <v xml:space="preserve">1k-2k
+                        经验不限 / 不限</v>
+      </c>
+      <c r="F38" t="str" xml:space="preserve">
+        <v xml:space="preserve">1k-2k
+                        经验不限 / 不限</v>
+      </c>
+      <c r="G38" t="str">
+        <v>企业服务 / 未融资 / 15-50人</v>
+      </c>
+    </row>
+    <row r="39" xml:space="preserve">
+      <c r="A39" t="str">
+        <v>Android开发工程师</v>
+      </c>
+      <c r="B39" t="str">
+        <v>8k-10k</v>
+      </c>
+      <c r="C39" t="str">
+        <v>中康荣华</v>
+      </c>
+      <c r="D39" t="str">
+        <v>管城回族区</v>
+      </c>
+      <c r="E39" t="str" xml:space="preserve">
+        <v xml:space="preserve">8k-10k
+                        经验3-5年 / 本科</v>
+      </c>
+      <c r="F39" t="str" xml:space="preserve">
+        <v xml:space="preserve">8k-10k
+                        经验3-5年 / 本科</v>
+      </c>
+      <c r="G39" t="str">
+        <v>软件服务｜咨询,生活服务 / 未融资 / 15-50人</v>
+      </c>
+    </row>
+    <row r="40" xml:space="preserve">
+      <c r="A40" t="str">
+        <v>安卓android开发工程师</v>
+      </c>
+      <c r="B40" t="str">
+        <v>7k-8k</v>
+      </c>
+      <c r="C40" t="str">
+        <v>小牛信息</v>
+      </c>
+      <c r="D40" t="str">
+        <v>管城回族区</v>
+      </c>
+      <c r="E40" t="str" xml:space="preserve">
+        <v xml:space="preserve">7k-8k
+                        经验1-3年 / 本科</v>
+      </c>
+      <c r="F40" t="str" xml:space="preserve">
+        <v xml:space="preserve">7k-8k
+                        经验1-3年 / 本科</v>
+      </c>
+      <c r="G40" t="str">
+        <v>软件开发 / 未融资 / 15-50人</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G32"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G40"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/招聘求职信息-招聘网站-人才网-拉勾招聘.xlsx
+++ b/app/src/main/assets/招聘求职信息-招聘网站-人才网-拉勾招聘.xlsx
@@ -430,127 +430,127 @@
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" t="str">
-        <v>android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B3" t="str">
-        <v>5K-10K</v>
+        <v>6k-8k</v>
       </c>
       <c r="C3" t="str">
-        <v>叁柒壹</v>
+        <v>天派信息技术</v>
       </c>
       <c r="D3" t="str">
-        <v>中原区</v>
+        <v>高新区</v>
       </c>
       <c r="E3" t="str" xml:space="preserve">
-        <v xml:space="preserve">5K-10K
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">6k-8k
+                        经验3-5年 / 不限</v>
       </c>
       <c r="F3" t="str" xml:space="preserve">
-        <v xml:space="preserve">5K-10K
-                        经验1-3年 / 本科</v>
+        <v xml:space="preserve">6k-8k
+                        经验3-5年 / 不限</v>
       </c>
       <c r="G3" t="str">
-        <v>移动互联网,硬件 / 未融资 / 少于15人</v>
+        <v>通讯电子,软件开发 / 未融资 / 15-50人</v>
       </c>
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4" t="str">
-        <v>安卓开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B4" t="str">
-        <v>10k-15k</v>
+        <v>15k-25k</v>
       </c>
       <c r="C4" t="str">
-        <v>甜心互娱</v>
+        <v>小熊博望</v>
       </c>
       <c r="D4" t="str">
-        <v>高新区</v>
+        <v>金水区</v>
       </c>
       <c r="E4" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-15k
+        <v xml:space="preserve">15k-25k
                         经验3-5年 / 本科</v>
       </c>
       <c r="F4" t="str" xml:space="preserve">
-        <v xml:space="preserve">10k-15k
+        <v xml:space="preserve">15k-25k
                         经验3-5年 / 本科</v>
       </c>
       <c r="G4" t="str">
-        <v>游戏 / B轮 / 150-500人</v>
+        <v>IT技术服务｜咨询,工具类产品 / 不需要融资 / 150-500人</v>
       </c>
     </row>
     <row r="5" xml:space="preserve">
       <c r="A5" t="str">
-        <v>安卓android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B5" t="str">
-        <v>8k-15k</v>
+        <v>5K-10K</v>
       </c>
       <c r="C5" t="str">
-        <v>北京智慧图</v>
+        <v>叁柒壹</v>
       </c>
       <c r="D5" t="str">
-        <v>高新区</v>
+        <v>中原区</v>
       </c>
       <c r="E5" t="str" xml:space="preserve">
-        <v xml:space="preserve">8k-15k
-                        经验3-5年 / 本科</v>
+        <v xml:space="preserve">5K-10K
+                        经验1-3年 / 本科</v>
       </c>
       <c r="F5" t="str" xml:space="preserve">
-        <v xml:space="preserve">8k-15k
-                        经验3-5年 / 本科</v>
+        <v xml:space="preserve">5K-10K
+                        经验1-3年 / 本科</v>
       </c>
       <c r="G5" t="str">
-        <v>数据服务｜咨询,人工智能服务 / C轮 / 150-500人</v>
+        <v>移动互联网,硬件 / 未融资 / 少于15人</v>
       </c>
     </row>
     <row r="6" xml:space="preserve">
       <c r="A6" t="str">
-        <v>Android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B6" t="str">
         <v>10k-15k</v>
       </c>
       <c r="C6" t="str">
-        <v>小熊博望</v>
+        <v>甜心互娱</v>
       </c>
       <c r="D6" t="str">
-        <v>金水区</v>
+        <v>高新区</v>
       </c>
       <c r="E6" t="str" xml:space="preserve">
         <v xml:space="preserve">10k-15k
-                        经验1-3年 / 本科</v>
+                        经验3-5年 / 本科</v>
       </c>
       <c r="F6" t="str" xml:space="preserve">
         <v xml:space="preserve">10k-15k
-                        经验1-3年 / 本科</v>
+                        经验3-5年 / 本科</v>
       </c>
       <c r="G6" t="str">
-        <v>IT技术服务｜咨询,工具类产品 / 不需要融资 / 150-500人</v>
+        <v>游戏 / B轮 / 150-500人</v>
       </c>
     </row>
     <row r="7" xml:space="preserve">
       <c r="A7" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓android开发工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>6k-8k</v>
+        <v>8k-15k</v>
       </c>
       <c r="C7" t="str">
-        <v>天派信息技术</v>
+        <v>北京智慧图</v>
       </c>
       <c r="D7" t="str">
         <v>高新区</v>
       </c>
       <c r="E7" t="str" xml:space="preserve">
-        <v xml:space="preserve">6k-8k
-                        经验3-5年 / 不限</v>
+        <v xml:space="preserve">8k-15k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="F7" t="str" xml:space="preserve">
-        <v xml:space="preserve">6k-8k
-                        经验3-5年 / 不限</v>
+        <v xml:space="preserve">8k-15k
+                        经验3-5年 / 本科</v>
       </c>
       <c r="G7" t="str">
-        <v>通讯电子,软件开发 / 未融资 / 15-50人</v>
+        <v>数据服务｜咨询,人工智能服务 / C轮 / 150-500人</v>
       </c>
     </row>
     <row r="8" xml:space="preserve">
@@ -780,10 +780,10 @@
     </row>
     <row r="17" xml:space="preserve">
       <c r="A17" t="str">
-        <v>高级android开发工程师</v>
+        <v>Android开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>15k-25k</v>
+        <v>10k-15k</v>
       </c>
       <c r="C17" t="str">
         <v>小熊博望</v>
@@ -792,12 +792,12 @@
         <v>金水区</v>
       </c>
       <c r="E17" t="str" xml:space="preserve">
-        <v xml:space="preserve">15k-25k
-                        经验3-5年 / 本科</v>
+        <v xml:space="preserve">10k-15k
+                        经验1-3年 / 本科</v>
       </c>
       <c r="F17" t="str" xml:space="preserve">
-        <v xml:space="preserve">15k-25k
-                        经验3-5年 / 本科</v>
+        <v xml:space="preserve">10k-15k
+                        经验1-3年 / 本科</v>
       </c>
       <c r="G17" t="str">
         <v>IT技术服务｜咨询,工具类产品 / 不需要融资 / 150-500人</v>
